--- a/tests/test1/d30/ЛМ, 1.0.xlsx
+++ b/tests/test1/d30/ЛМ, 1.0.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.004382700000000739</v>
+        <v>0.002555800000003217</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.007654799999997408</v>
+        <v>0.004711999999997829</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.003618400000000577</v>
+        <v>0.003340300000004959</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004417300000000068</v>
+        <v>0.00470510000000246</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002503499999995995</v>
+        <v>0.005923699999996757</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002345200000000602</v>
+        <v>0.002365300000001014</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002278900000000306</v>
+        <v>0.003826899999999966</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002104500000001508</v>
+        <v>0.002043999999997936</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002545699999998874</v>
+        <v>0.002565699999998117</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.002419899999999586</v>
+        <v>0.003900000000001569</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.00206359999999961</v>
+        <v>0.002076500000001147</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002079999999999416</v>
+        <v>0.002305199999995011</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002093700000003196</v>
+        <v>0.00509089999999901</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002303299999994124</v>
+        <v>0.002301100000003942</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003303899999998805</v>
+        <v>0.002503900000000669</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002095599999996978</v>
+        <v>0.002114499999997577</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002100699999999733</v>
+        <v>0.001988799999999458</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002330100000001778</v>
+        <v>0.0022593999999998</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.00261030000000062</v>
+        <v>0.002429100000000517</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002597599999994316</v>
+        <v>0.002087700000004133</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002817399999997861</v>
+        <v>0.002648499999999387</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002015399999997669</v>
+        <v>0.002445799999996723</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002022099999997806</v>
+        <v>0.001750200000003588</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.003855300000005002</v>
+        <v>0.003087999999998203</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.00381229999999988</v>
+        <v>0.002005099999998095</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.00413340000000062</v>
+        <v>0.002212600000000009</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004647699999999588</v>
+        <v>0.002231099999995934</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.004672200000001681</v>
+        <v>0.002517000000004543</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002630700000004538</v>
+        <v>0.003695399999998017</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002139799999994807</v>
+        <v>0.002001399999997489</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.003079200000001947</v>
+        <v>0.001724099999997009</v>
       </c>
       <c r="Y32" t="n">
         <v>7</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.003804999999999836</v>
+        <v>0.002437700000001541</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.00211330000000487</v>
+        <v>0.00199140000000142</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.003335100000001034</v>
+        <v>0.001987900000003151</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001850100000005739</v>
+        <v>0.001738299999999526</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002072800000000541</v>
+        <v>0.003472799999997278</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002371400000001245</v>
+        <v>0.002244300000000976</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002104299999999171</v>
+        <v>0.001946700000004853</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.003551700000002711</v>
+        <v>0.002471800000002133</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002616400000000851</v>
+        <v>0.002444700000005184</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002220900000004633</v>
+        <v>0.002028699999996775</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002318899999998791</v>
+        <v>0.001960300000000359</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002559200000000317</v>
+        <v>0.003777499999998213</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001867699999998251</v>
+        <v>0.001823799999996822</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002099300000004689</v>
+        <v>0.001970999999997503</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.003053400000005979</v>
+        <v>0.001990900000002682</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002341700000002334</v>
+        <v>0.002196500000003709</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001818600000000004</v>
+        <v>0.003350000000004627</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.002313299999997298</v>
+        <v>0.001722600000000796</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002195400000005066</v>
+        <v>0.002001700000000994</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001980000000003201</v>
+        <v>0.001805199999999729</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.00418849999999793</v>
+        <v>0.00197799999999404</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.003890800000000638</v>
+        <v>0.003755099999999345</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002496200000003057</v>
+        <v>0.002196999999995342</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.003359299999999621</v>
+        <v>0.002058099999999286</v>
       </c>
       <c r="Y56" t="n">
         <v>7</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.003170400000001905</v>
+        <v>0.001791700000005392</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.003512499999999363</v>
+        <v>0.001747200000004057</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.00366950000000088</v>
+        <v>0.001980899999999508</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.003695899999996755</v>
+        <v>0.00199620000000067</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.003383499999998207</v>
+        <v>0.001967399999998065</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.003657400000001587</v>
+        <v>0.001803999999999917</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.004071500000002004</v>
+        <v>0.00207560000000484</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002912299999998424</v>
+        <v>0.001906200000000524</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.00392490000000123</v>
+        <v>0.002217100000002858</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.003604299999999228</v>
+        <v>0.003682999999995218</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.003021400000001506</v>
+        <v>0.001763599999996757</v>
       </c>
       <c r="Y67" t="n">
         <v>7</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.003059100000001536</v>
+        <v>0.001990499999998008</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002618500000004076</v>
+        <v>0.00251819999999725</v>
       </c>
       <c r="Y69" t="n">
         <v>10</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002653700000003312</v>
+        <v>0.002025899999999581</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002295199999998943</v>
+        <v>0.003918599999998662</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002996500000001845</v>
+        <v>0.002279199999996706</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002057499999999379</v>
+        <v>0.002046100000001161</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001804999999997392</v>
+        <v>0.001843000000000927</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002573599999998066</v>
+        <v>0.002526899999999443</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002036100000005092</v>
+        <v>0.002177599999996005</v>
       </c>
       <c r="Y76" t="n">
         <v>8</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002677200000000823</v>
+        <v>0.002152199999997606</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002780799999996475</v>
+        <v>0.004237400000000946</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002464599999996153</v>
+        <v>0.002258300000001157</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.00221419999999739</v>
+        <v>0.00203180000000458</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002579299999993623</v>
+        <v>0.002520699999998044</v>
       </c>
       <c r="Y81" t="n">
         <v>10</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002610600000004126</v>
+        <v>0.002484600000002501</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002058200000000454</v>
+        <v>0.0021515999999977</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002846699999999203</v>
+        <v>0.002345299999994666</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002352600000001814</v>
+        <v>0.003391300000004094</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001901400000001274</v>
+        <v>0.001796699999999873</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002585199999998622</v>
+        <v>0.00290780000000268</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002074300000003859</v>
+        <v>0.002059400000000267</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.003443400000001873</v>
+        <v>0.002693399999998292</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002578700000000822</v>
+        <v>0.002622099999996408</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002078699999998435</v>
+        <v>0.002158600000001343</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002156999999996856</v>
+        <v>0.002499600000000157</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002126000000004069</v>
+        <v>0.002035499999998081</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002646800000000837</v>
+        <v>0.002838500000002853</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002691300000002173</v>
+        <v>0.00257469999999671</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.003093599999999697</v>
+        <v>0.002372499999999889</v>
       </c>
       <c r="Y96" t="n">
         <v>9</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.00221870000000024</v>
+        <v>0.002134400000002756</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002364599999999939</v>
+        <v>0.002459699999995735</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002907100000001606</v>
+        <v>0.00350519999999932</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002365799999999751</v>
+        <v>0.002395100000001094</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002393299999994269</v>
+        <v>0.003822399999997117</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d30/ЛМ, 1.0.xlsx
+++ b/tests/test1/d30/ЛМ, 1.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002555800000003217</v>
+        <v>0.003153900000000931</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.004711999999997829</v>
+        <v>0.003269000000003075</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.003340300000004959</v>
+        <v>0.002629599999991683</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.00470510000000246</v>
+        <v>0.002991399999999089</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.005923699999996757</v>
+        <v>0.002208499999994729</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002365300000001014</v>
+        <v>0.004828200000005722</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.003826899999999966</v>
+        <v>0.002492300000000114</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002043999999997936</v>
+        <v>0.002284399999993525</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002565699999998117</v>
+        <v>0.002796099999997637</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.003900000000001569</v>
+        <v>0.002015100000008374</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002076500000001147</v>
+        <v>0.002218900000002577</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002305199999995011</v>
+        <v>0.00370960000000764</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.00509089999999901</v>
+        <v>0.002180899999999042</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002301100000003942</v>
+        <v>0.005954399999993143</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002503900000000669</v>
+        <v>0.002669099999991431</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002114499999997577</v>
+        <v>0.005235900000002403</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001988799999999458</v>
+        <v>0.002200700000003053</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.0022593999999998</v>
+        <v>0.004692199999993818</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002429100000000517</v>
+        <v>0.002697900000001141</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002087700000004133</v>
+        <v>0.00439729999999372</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002648499999999387</v>
+        <v>0.002984200000000214</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002445799999996723</v>
+        <v>0.002500999999995202</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001750200000003588</v>
+        <v>0.002723399999993603</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.003087999999998203</v>
+        <v>0.005032299999996326</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002005099999998095</v>
+        <v>0.002315800000005197</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002212600000000009</v>
+        <v>0.004033499999991363</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002231099999995934</v>
+        <v>0.004625099999998383</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002517000000004543</v>
+        <v>0.00439869999999587</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.003695399999998017</v>
+        <v>0.002485799999988103</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002001399999997489</v>
+        <v>0.00234470000000897</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.001724099999997009</v>
+        <v>0.00312900000000127</v>
       </c>
       <c r="Y32" t="n">
         <v>7</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002437700000001541</v>
+        <v>0.007962000000006242</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.00199140000000142</v>
+        <v>0.002284699999989925</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.001987900000003151</v>
+        <v>0.002425700000003417</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001738299999999526</v>
+        <v>0.002454399999990642</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.003472799999997278</v>
+        <v>0.005607800000007046</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002244300000000976</v>
+        <v>0.0025035000000031</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.001946700000004853</v>
+        <v>0.005180800000005092</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002471800000002133</v>
+        <v>0.002728799999999865</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002444700000005184</v>
+        <v>0.004869999999996821</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002028699999996775</v>
+        <v>0.00217489999999998</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.001960300000000359</v>
+        <v>0.004317200000002686</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.003777499999998213</v>
+        <v>0.002721399999998653</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001823799999996822</v>
+        <v>0.002411300000005667</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.001970999999997503</v>
+        <v>0.002312699999990286</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001990900000002682</v>
+        <v>0.002224099999992291</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002196500000003709</v>
+        <v>0.00257750000000101</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.003350000000004627</v>
+        <v>0.001899199999996881</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001722600000000796</v>
+        <v>0.002555100000009247</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002001700000000994</v>
+        <v>0.002181300000003716</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001805199999999729</v>
+        <v>0.003755499999996914</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.00197799999999404</v>
+        <v>0.002198899999996229</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.003755099999999345</v>
+        <v>0.002177799999998342</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002196999999995342</v>
+        <v>0.002524600000000987</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002058099999999286</v>
+        <v>0.001926100000005704</v>
       </c>
       <c r="Y56" t="n">
         <v>7</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001791700000005392</v>
+        <v>0.002009599999993839</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001747200000004057</v>
+        <v>0.001944399999999291</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001980899999999508</v>
+        <v>0.003701900000010028</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.00199620000000067</v>
+        <v>0.002179200000000492</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.001967399999998065</v>
+        <v>0.0022591000000034</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.001803999999999917</v>
+        <v>0.002004099999993514</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.00207560000000484</v>
+        <v>0.00223509999999294</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001906200000000524</v>
+        <v>0.001957799999999565</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002217100000002858</v>
+        <v>0.002481899999992265</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.003682999999995218</v>
+        <v>0.00418990000000008</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001763599999996757</v>
+        <v>0.002018000000006737</v>
       </c>
       <c r="Y67" t="n">
         <v>7</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.001990499999998008</v>
+        <v>0.002579999999994698</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.00251819999999725</v>
+        <v>0.002709600000002865</v>
       </c>
       <c r="Y69" t="n">
         <v>10</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002025899999999581</v>
+        <v>0.002212700000001178</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.003918599999998662</v>
+        <v>0.00358839999999816</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002279199999996706</v>
+        <v>0.004564600000009023</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002046100000001161</v>
+        <v>0.002220499999992853</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001843000000000927</v>
+        <v>0.001965800000007789</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002526899999999443</v>
+        <v>0.002922100000006367</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002177599999996005</v>
+        <v>0.002189799999996467</v>
       </c>
       <c r="Y76" t="n">
         <v>8</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002152199999997606</v>
+        <v>0.002213100000005852</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.004237400000000946</v>
+        <v>0.002697699999998804</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002258300000001157</v>
+        <v>0.00350619999998969</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.00203180000000458</v>
+        <v>0.002185499999995955</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002520699999998044</v>
+        <v>0.004618800000002921</v>
       </c>
       <c r="Y81" t="n">
         <v>10</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002484600000002501</v>
+        <v>0.002728000000004727</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.0021515999999977</v>
+        <v>0.002175500000006991</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002345299999994666</v>
+        <v>0.002457300000003215</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.003391300000004094</v>
+        <v>0.002440300000003504</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001796699999999873</v>
+        <v>0.001975400000006289</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.00290780000000268</v>
+        <v>0.00271990000000244</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002059400000000267</v>
+        <v>0.002548000000004436</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002693399999998292</v>
+        <v>0.00296740000000284</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002622099999996408</v>
+        <v>0.004273600000004762</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002158600000001343</v>
+        <v>0.002308300000009922</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002499600000000157</v>
+        <v>0.003674099999997793</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002035499999998081</v>
+        <v>0.002209600000000478</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002838500000002853</v>
+        <v>0.002808000000001698</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.00257469999999671</v>
+        <v>0.002803000000000111</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002372499999999889</v>
+        <v>0.002431600000008416</v>
       </c>
       <c r="Y96" t="n">
         <v>9</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002134400000002756</v>
+        <v>0.00234330000000682</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002459699999995735</v>
+        <v>0.002539400000003411</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.00350519999999932</v>
+        <v>0.003622999999990384</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002395100000001094</v>
+        <v>0.00251140000000305</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.003822399999997117</v>
+        <v>0.004401999999998907</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d30/ЛМ, 1.0.xlsx
+++ b/tests/test1/d30/ЛМ, 1.0.xlsx
@@ -582,13 +582,13 @@
         <v>359.7691391075251</v>
       </c>
       <c r="F2" t="n">
-        <v>31.19521899288693</v>
+        <v>31.19521899288691</v>
       </c>
       <c r="G2" t="n">
         <v>96.35234004844804</v>
       </c>
       <c r="H2" t="n">
-        <v>12.56546228037948</v>
+        <v>12.56546228037947</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>30.78270404467389</v>
       </c>
       <c r="P2" t="n">
-        <v>31.32327556127818</v>
+        <v>31.32327556127816</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0830096458432751</v>
+        <v>0.08300964584327214</v>
       </c>
       <c r="R2" t="n">
-        <v>1.644689967076142</v>
+        <v>1.6446899670761</v>
       </c>
       <c r="S2" t="n">
-        <v>1.009520363057428</v>
+        <v>1.009520363057391</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4541233870597995</v>
+        <v>0.4541233870597888</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9986440690540341</v>
+        <v>0.9986440690540347</v>
       </c>
       <c r="V2" t="n">
-        <v>0.445842295208509</v>
+        <v>0.4458422952085063</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.003153900000000931</v>
+        <v>0.002109099999998421</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -664,13 +664,13 @@
         <v>0.01760530146103284</v>
       </c>
       <c r="F3" t="n">
-        <v>28.304296994287</v>
+        <v>28.30429699428701</v>
       </c>
       <c r="G3" t="n">
-        <v>75.73618786169847</v>
+        <v>75.73618786169844</v>
       </c>
       <c r="H3" t="n">
-        <v>10.61751590193344</v>
+        <v>10.61751590193345</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -691,28 +691,28 @@
         <v>34.28275889914102</v>
       </c>
       <c r="O3" t="n">
-        <v>25.13871237064739</v>
+        <v>25.1387123706474</v>
       </c>
       <c r="P3" t="n">
-        <v>31.84328697242187</v>
+        <v>31.84328697242189</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07273243185767488</v>
+        <v>0.0727324318576784</v>
       </c>
       <c r="R3" t="n">
-        <v>1.324441514132669</v>
+        <v>1.324441514132891</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7937816774922875</v>
+        <v>0.7937816774924279</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6552197436561966</v>
+        <v>0.6552197436562384</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9940442208307234</v>
+        <v>0.9940442208307231</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4053551231977922</v>
+        <v>0.4053551231977818</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.003269000000003075</v>
+        <v>0.00196640000000059</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -749,10 +749,10 @@
         <v>31.14607511976867</v>
       </c>
       <c r="G4" t="n">
-        <v>109.2322609947999</v>
+        <v>109.2322609947998</v>
       </c>
       <c r="H4" t="n">
-        <v>3.298820758357987</v>
+        <v>3.298820758357985</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -779,22 +779,22 @@
         <v>27.67686685930754</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07148169402954629</v>
+        <v>0.0714816940295484</v>
       </c>
       <c r="R4" t="n">
-        <v>1.152227412693824</v>
+        <v>1.152227412693797</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3630738539808506</v>
+        <v>0.3630738539808555</v>
       </c>
       <c r="T4" t="n">
-        <v>1.381295338448276</v>
+        <v>1.381295338448329</v>
       </c>
       <c r="U4" t="n">
-        <v>1.054887009489274</v>
+        <v>1.054887009489273</v>
       </c>
       <c r="V4" t="n">
-        <v>0.876466856566067</v>
+        <v>0.8764668565660669</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002629599999991683</v>
+        <v>0.001601999999998327</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,7 +828,7 @@
         <v>0.2309194198100825</v>
       </c>
       <c r="F5" t="n">
-        <v>28.20525531370831</v>
+        <v>28.2052553137083</v>
       </c>
       <c r="G5" t="n">
         <v>103.3805450205829</v>
@@ -861,22 +861,22 @@
         <v>26.33217635885086</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06837062563846126</v>
+        <v>0.06837062563846248</v>
       </c>
       <c r="R5" t="n">
-        <v>1.264515422743033</v>
+        <v>1.264515422743119</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7568809661252174</v>
+        <v>0.756880966125262</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3965801429365297</v>
+        <v>0.3965801429365396</v>
       </c>
       <c r="U5" t="n">
-        <v>1.044254645300879</v>
+        <v>1.04425464530088</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5627082117868366</v>
+        <v>0.5627082117868378</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002991399999999089</v>
+        <v>0.002294800000001374</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -910,7 +910,7 @@
         <v>0.005894300717537202</v>
       </c>
       <c r="F6" t="n">
-        <v>30.20790282305526</v>
+        <v>30.20790282305525</v>
       </c>
       <c r="G6" t="n">
         <v>175.3691728737584</v>
@@ -943,22 +943,22 @@
         <v>15.26515536999892</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05729352143671173</v>
+        <v>0.05729352143670915</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7951062334169997</v>
+        <v>0.7951062334169882</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1873492307447694</v>
+        <v>0.1873492307447604</v>
       </c>
       <c r="T6" t="n">
-        <v>1.135700744587008</v>
+        <v>1.135700744586941</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9408350378361539</v>
+        <v>0.9408350378361536</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3930071052055889</v>
+        <v>0.3930071052055901</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002208499999994729</v>
+        <v>0.001973599999999465</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -992,13 +992,13 @@
         <v>359.8418221701678</v>
       </c>
       <c r="F7" t="n">
-        <v>31.38686435159037</v>
+        <v>31.38686435159034</v>
       </c>
       <c r="G7" t="n">
-        <v>39.277848686684</v>
+        <v>39.27784868668396</v>
       </c>
       <c r="H7" t="n">
-        <v>14.99769456269869</v>
+        <v>14.9976945626987</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>16.28844241660277</v>
       </c>
       <c r="P7" t="n">
-        <v>44.48741192209437</v>
+        <v>44.48741192209435</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08531994016577091</v>
+        <v>0.08531994016577389</v>
       </c>
       <c r="R7" t="n">
-        <v>1.737181419683907</v>
+        <v>1.737181419684001</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8632380617799096</v>
+        <v>0.8632380617799753</v>
       </c>
       <c r="T7" t="n">
-        <v>1.5208352597989</v>
+        <v>1.520835259799</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9592196434602417</v>
+        <v>0.959219643460242</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4564027800725307</v>
+        <v>0.4564027800725329</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.004828200000005722</v>
+        <v>0.001897499999998331</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1074,13 +1074,13 @@
         <v>0.05332131695363376</v>
       </c>
       <c r="F8" t="n">
-        <v>29.47584589162698</v>
+        <v>29.47584589162697</v>
       </c>
       <c r="G8" t="n">
         <v>165.2023255267412</v>
       </c>
       <c r="H8" t="n">
-        <v>7.787903343333352</v>
+        <v>7.787903343333349</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>18.18085667688603</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06206190110035308</v>
+        <v>0.06206190110035421</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8030718933230613</v>
+        <v>0.8030718933230675</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2595389265995326</v>
+        <v>0.2595389265995452</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9503906306099471</v>
+        <v>0.950390630609952</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9285312073787982</v>
+        <v>0.9285312073787985</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5569344712579412</v>
+        <v>0.5569344712579409</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002492300000000114</v>
+        <v>0.002591899999998759</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1159,7 +1159,7 @@
         <v>27.69276453933789</v>
       </c>
       <c r="G9" t="n">
-        <v>13.30213793718402</v>
+        <v>13.30213793718404</v>
       </c>
       <c r="H9" t="n">
         <v>10.21402442731126</v>
@@ -1189,22 +1189,22 @@
         <v>37.22493474106071</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.06696014533415968</v>
+        <v>0.06696014533416127</v>
       </c>
       <c r="R9" t="n">
         <v>1.433127414173444</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3192105167713712</v>
+        <v>0.3192105167713845</v>
       </c>
       <c r="T9" t="n">
-        <v>2.286636943300711</v>
+        <v>2.286636943300797</v>
       </c>
       <c r="U9" t="n">
         <v>0.948671210822725</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6773257464381115</v>
+        <v>0.6773257464381122</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002284399999993525</v>
+        <v>0.001624399999997195</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1238,7 +1238,7 @@
         <v>359.9268610086057</v>
       </c>
       <c r="F10" t="n">
-        <v>31.27875623589843</v>
+        <v>31.27875623589842</v>
       </c>
       <c r="G10" t="n">
         <v>155.9995401100297</v>
@@ -1268,25 +1268,25 @@
         <v>35.41851122405734</v>
       </c>
       <c r="P10" t="n">
-        <v>14.74140310774682</v>
+        <v>14.74140310774681</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.07416857730504765</v>
+        <v>0.07416857730504213</v>
       </c>
       <c r="R10" t="n">
-        <v>1.349174399778942</v>
+        <v>1.349174399778778</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5763866582379834</v>
+        <v>0.5763866582379101</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4746721750878948</v>
+        <v>0.4746721750878576</v>
       </c>
       <c r="U10" t="n">
-        <v>1.094733444179545</v>
+        <v>1.094733444179544</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2504571200345329</v>
+        <v>0.2504571200345315</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002796099999997637</v>
+        <v>0.002039600000003361</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
@@ -1320,13 +1320,13 @@
         <v>359.9618605497508</v>
       </c>
       <c r="F11" t="n">
-        <v>31.40251407046625</v>
+        <v>31.40251407046623</v>
       </c>
       <c r="G11" t="n">
-        <v>2.416333837086389</v>
+        <v>2.416333837086376</v>
       </c>
       <c r="H11" t="n">
-        <v>7.621289268890355</v>
+        <v>7.621289268890378</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1350,25 +1350,25 @@
         <v>2.318046066484666</v>
       </c>
       <c r="P11" t="n">
-        <v>37.95461806512795</v>
+        <v>37.95461806512796</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0617092282175014</v>
+        <v>0.06170922821750165</v>
       </c>
       <c r="R11" t="n">
-        <v>2.594530011524202</v>
+        <v>2.594530011524204</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2027444083338128</v>
+        <v>0.2027444083338141</v>
       </c>
       <c r="T11" t="n">
-        <v>4.088674737947128</v>
+        <v>4.088674737947165</v>
       </c>
       <c r="U11" t="n">
         <v>1.047013673655048</v>
       </c>
       <c r="V11" t="n">
-        <v>0.422917268159415</v>
+        <v>0.422917268159408</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.002015100000008374</v>
+        <v>0.002100499999997396</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1402,13 +1402,13 @@
         <v>359.9208617519732</v>
       </c>
       <c r="F12" t="n">
-        <v>30.15979496822676</v>
+        <v>30.15979496822675</v>
       </c>
       <c r="G12" t="n">
-        <v>139.7063890305553</v>
+        <v>139.7063890305552</v>
       </c>
       <c r="H12" t="n">
-        <v>3.402962688803647</v>
+        <v>3.402962688803644</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1435,22 +1435,22 @@
         <v>24.71785165873442</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.06564962487370528</v>
+        <v>0.0656496248737061</v>
       </c>
       <c r="R12" t="n">
-        <v>1.039383525091503</v>
+        <v>1.039383525091485</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2861296978378892</v>
+        <v>0.2861296978378902</v>
       </c>
       <c r="T12" t="n">
-        <v>1.409449507518202</v>
+        <v>1.409449507518218</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8895963018142699</v>
+        <v>0.8895963018142696</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1617772264846249</v>
+        <v>0.1617772264846211</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002218900000002577</v>
+        <v>0.001655599999999424</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1487,10 +1487,10 @@
         <v>27.71250443914702</v>
       </c>
       <c r="G13" t="n">
-        <v>29.239558839964</v>
+        <v>29.23955883996394</v>
       </c>
       <c r="H13" t="n">
-        <v>2.796570808660167</v>
+        <v>2.796570808660173</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1514,25 +1514,25 @@
         <v>5.776621862299105</v>
       </c>
       <c r="P13" t="n">
-        <v>28.16746367484454</v>
+        <v>28.16746367484455</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.05997973234547455</v>
+        <v>0.05997973234547276</v>
       </c>
       <c r="R13" t="n">
-        <v>1.225787750700534</v>
+        <v>1.225787750700525</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2324038819378895</v>
+        <v>0.23240388193788</v>
       </c>
       <c r="T13" t="n">
-        <v>1.928252001602741</v>
+        <v>1.928252001602649</v>
       </c>
       <c r="U13" t="n">
         <v>0.9629695995602627</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6319072608978434</v>
+        <v>0.6319072608978396</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.00370960000000764</v>
+        <v>0.001638799999994944</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1566,13 +1566,13 @@
         <v>0.08871923856343793</v>
       </c>
       <c r="F14" t="n">
-        <v>32.17606453510507</v>
+        <v>32.17606453510508</v>
       </c>
       <c r="G14" t="n">
-        <v>26.97911614546299</v>
+        <v>26.97911614546298</v>
       </c>
       <c r="H14" t="n">
-        <v>13.84851330346764</v>
+        <v>13.84851330346765</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1596,25 +1596,25 @@
         <v>11.16771747762883</v>
       </c>
       <c r="P14" t="n">
-        <v>45.22572577940632</v>
+        <v>45.22572577940634</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08387933836496225</v>
+        <v>0.08387933836496332</v>
       </c>
       <c r="R14" t="n">
-        <v>1.741240621526307</v>
+        <v>1.741240621526193</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6519412260717798</v>
+        <v>0.6519412260717596</v>
       </c>
       <c r="T14" t="n">
-        <v>2.018722106835382</v>
+        <v>2.018722106835394</v>
       </c>
       <c r="U14" t="n">
-        <v>1.006973467011772</v>
+        <v>1.006973467011771</v>
       </c>
       <c r="V14" t="n">
-        <v>0.646670038879566</v>
+        <v>0.6466700388795694</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002180899999999042</v>
+        <v>0.001606299999998839</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1651,10 +1651,10 @@
         <v>30.39395364192358</v>
       </c>
       <c r="G15" t="n">
-        <v>138.1571044274385</v>
+        <v>138.1571044274384</v>
       </c>
       <c r="H15" t="n">
-        <v>5.868777091914737</v>
+        <v>5.868777091914735</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1681,22 +1681,22 @@
         <v>23.28256521341894</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.069806359058741</v>
+        <v>0.06980635905874466</v>
       </c>
       <c r="R15" t="n">
-        <v>1.03073471305399</v>
+        <v>1.030734713054024</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3911885100911227</v>
+        <v>0.3911885100911583</v>
       </c>
       <c r="T15" t="n">
-        <v>0.879160801965934</v>
+        <v>0.8791608019659727</v>
       </c>
       <c r="U15" t="n">
-        <v>0.877229499268761</v>
+        <v>0.8772294992687608</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1225320113241588</v>
+        <v>0.1225320113241594</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.005954399999993143</v>
+        <v>0.001905600000000618</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1730,13 +1730,13 @@
         <v>0.1845423893794801</v>
       </c>
       <c r="F16" t="n">
-        <v>29.53952985951808</v>
+        <v>29.5395298595181</v>
       </c>
       <c r="G16" t="n">
         <v>91.67227465138282</v>
       </c>
       <c r="H16" t="n">
-        <v>12.04930557558677</v>
+        <v>12.04930557558678</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1760,25 +1760,25 @@
         <v>30.67350330875187</v>
       </c>
       <c r="P16" t="n">
-        <v>30.81202159408659</v>
+        <v>30.81202159408662</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07358432792164186</v>
+        <v>0.07358432792164114</v>
       </c>
       <c r="R16" t="n">
-        <v>1.491457350450706</v>
+        <v>1.49145735045056</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9445476012038805</v>
+        <v>0.9445476012037967</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4651577367818656</v>
+        <v>0.4651577367818645</v>
       </c>
       <c r="U16" t="n">
-        <v>1.038724774056619</v>
+        <v>1.038724774056618</v>
       </c>
       <c r="V16" t="n">
-        <v>0.09519995958579534</v>
+        <v>0.09519995958579074</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002669099999991431</v>
+        <v>0.001968400000002646</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1815,10 +1815,10 @@
         <v>29.75352213929805</v>
       </c>
       <c r="G17" t="n">
-        <v>154.1466994416518</v>
+        <v>154.1466994416519</v>
       </c>
       <c r="H17" t="n">
-        <v>5.202816782575632</v>
+        <v>5.20281678257564</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1839,19 +1839,19 @@
         <v>22.25264734341951</v>
       </c>
       <c r="O17" t="n">
-        <v>10.32622259509154</v>
+        <v>10.32622259509156</v>
       </c>
       <c r="P17" t="n">
         <v>21.87291803927308</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.06458287505175958</v>
+        <v>0.06458287505175996</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9227769374186946</v>
+        <v>0.9227769374186859</v>
       </c>
       <c r="S17" t="n">
-        <v>0.284234695773504</v>
+        <v>0.2842346957735032</v>
       </c>
       <c r="T17" t="n">
         <v>1.152793952883636</v>
@@ -1860,7 +1860,7 @@
         <v>1.001616230206747</v>
       </c>
       <c r="V17" t="n">
-        <v>0.09353780046275345</v>
+        <v>0.09353780046275928</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.005235900000002403</v>
+        <v>0.001600199999998608</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1897,10 +1897,10 @@
         <v>27.61922709640537</v>
       </c>
       <c r="G18" t="n">
-        <v>42.04421821749443</v>
+        <v>42.04421821749434</v>
       </c>
       <c r="H18" t="n">
-        <v>7.656245344765304</v>
+        <v>7.656245344765323</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>12.99025695155796</v>
       </c>
       <c r="P18" t="n">
-        <v>32.66161706664216</v>
+        <v>32.66161706664218</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.06878429997711291</v>
+        <v>0.06878429997711591</v>
       </c>
       <c r="R18" t="n">
-        <v>1.128554505191977</v>
+        <v>1.128554505191953</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4631506277115349</v>
+        <v>0.4631506277115495</v>
       </c>
       <c r="T18" t="n">
-        <v>1.237234348312641</v>
+        <v>1.237234348312711</v>
       </c>
       <c r="U18" t="n">
         <v>0.8529535297979045</v>
       </c>
       <c r="V18" t="n">
-        <v>0.7016181393520975</v>
+        <v>0.7016181393520892</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002200700000003053</v>
+        <v>0.001813599999998416</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,13 +1976,13 @@
         <v>359.822346321238</v>
       </c>
       <c r="F19" t="n">
-        <v>29.58513034877961</v>
+        <v>29.5851303487796</v>
       </c>
       <c r="G19" t="n">
-        <v>48.42514041091199</v>
+        <v>48.42514041091201</v>
       </c>
       <c r="H19" t="n">
-        <v>10.41594453447121</v>
+        <v>10.41594453447119</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2003,28 +2003,28 @@
         <v>35.61949574546529</v>
       </c>
       <c r="O19" t="n">
-        <v>16.47580682179243</v>
+        <v>16.47580682179244</v>
       </c>
       <c r="P19" t="n">
-        <v>36.77293843517062</v>
+        <v>36.77293843517059</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.07760460186584393</v>
+        <v>0.0776046018658452</v>
       </c>
       <c r="R19" t="n">
-        <v>1.39726170636644</v>
+        <v>1.397261706366416</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6705673985954641</v>
+        <v>0.670567398595461</v>
       </c>
       <c r="T19" t="n">
-        <v>1.172794880214977</v>
+        <v>1.172794880214995</v>
       </c>
       <c r="U19" t="n">
         <v>1.030420561614925</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4702940553749672</v>
+        <v>0.4702940553749621</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.004692199999993818</v>
+        <v>0.001879399999999976</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2058,13 +2058,13 @@
         <v>359.6662147266932</v>
       </c>
       <c r="F20" t="n">
-        <v>31.80160378109669</v>
+        <v>31.80160378109671</v>
       </c>
       <c r="G20" t="n">
         <v>110.6896750243267</v>
       </c>
       <c r="H20" t="n">
-        <v>9.989707576108261</v>
+        <v>9.989707576108268</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2088,25 +2088,25 @@
         <v>26.05766309221278</v>
       </c>
       <c r="P20" t="n">
-        <v>27.77238625459795</v>
+        <v>27.77238625459798</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.08312841142056517</v>
+        <v>0.08312841142056658</v>
       </c>
       <c r="R20" t="n">
-        <v>1.500052237185207</v>
+        <v>1.500052237185056</v>
       </c>
       <c r="S20" t="n">
-        <v>0.77349150264216</v>
+        <v>0.773491502642109</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5030694343365035</v>
+        <v>0.5030694343365312</v>
       </c>
       <c r="U20" t="n">
         <v>1.021103287592321</v>
       </c>
       <c r="V20" t="n">
-        <v>0.662731250573374</v>
+        <v>0.6627312505733773</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002697900000001141</v>
+        <v>0.0020212000000015</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2140,13 +2140,13 @@
         <v>0.01647841406651968</v>
       </c>
       <c r="F21" t="n">
-        <v>29.24331255842616</v>
+        <v>29.24331255842618</v>
       </c>
       <c r="G21" t="n">
         <v>16.4610544445675</v>
       </c>
       <c r="H21" t="n">
-        <v>13.05282638014805</v>
+        <v>13.05282638014807</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2170,25 +2170,25 @@
         <v>7.681385669757781</v>
       </c>
       <c r="P21" t="n">
-        <v>42.0254462073197</v>
+        <v>42.02544620731974</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.07371403933873219</v>
+        <v>0.07371403933873322</v>
       </c>
       <c r="R21" t="n">
-        <v>1.530491851889639</v>
+        <v>1.530491851889642</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4301332527873993</v>
+        <v>0.4301332527874053</v>
       </c>
       <c r="T21" t="n">
-        <v>2.278739107711059</v>
+        <v>2.278739107711101</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9648363604203471</v>
+        <v>0.9648363604203474</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2328878091244509</v>
+        <v>0.2328878091244551</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.00439729999999372</v>
+        <v>0.002175799999996286</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2219,16 +2219,16 @@
         <v>13.77256473491301</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1280582022229592</v>
+        <v>0.1280582022229719</v>
       </c>
       <c r="F22" t="n">
-        <v>28.11976970260553</v>
+        <v>28.11976970260552</v>
       </c>
       <c r="G22" t="n">
-        <v>107.6780894572879</v>
+        <v>107.678089457288</v>
       </c>
       <c r="H22" t="n">
-        <v>12.52943256971919</v>
+        <v>12.52943256971918</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2249,28 +2249,28 @@
         <v>28.53374266718802</v>
       </c>
       <c r="O22" t="n">
-        <v>36.61586933428872</v>
+        <v>36.61586933428871</v>
       </c>
       <c r="P22" t="n">
-        <v>26.08549250867083</v>
+        <v>26.08549250867081</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.06929206100806196</v>
+        <v>0.06929206100805939</v>
       </c>
       <c r="R22" t="n">
-        <v>1.362301064166117</v>
+        <v>1.362301064165828</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8971214512796046</v>
+        <v>0.8971214512794254</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3040549496130188</v>
+        <v>0.3040549496130256</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9421411258729321</v>
+        <v>0.9421411258729316</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4448374490585885</v>
+        <v>0.4448374490585931</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002984200000000214</v>
+        <v>0.002298000000003242</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2307,10 +2307,10 @@
         <v>32.31148244557429</v>
       </c>
       <c r="G23" t="n">
-        <v>9.83342422091904</v>
+        <v>9.833424220919026</v>
       </c>
       <c r="H23" t="n">
-        <v>9.106710525302294</v>
+        <v>9.106710525302292</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2334,25 +2334,25 @@
         <v>4.183433223149657</v>
       </c>
       <c r="P23" t="n">
-        <v>40.57062615186825</v>
+        <v>40.57062615186824</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0710830176671956</v>
+        <v>0.07108301766719714</v>
       </c>
       <c r="R23" t="n">
-        <v>2.038807677486529</v>
+        <v>2.03880767748656</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2989620063798484</v>
+        <v>0.2989620063798568</v>
       </c>
       <c r="T23" t="n">
-        <v>3.312389652792636</v>
+        <v>3.312389652792739</v>
       </c>
       <c r="U23" t="n">
         <v>1.01301798023255</v>
       </c>
       <c r="V23" t="n">
-        <v>1.389000762649989</v>
+        <v>1.389000762649988</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002500999999995202</v>
+        <v>0.001524400000000981</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2389,10 +2389,10 @@
         <v>31.89184513698705</v>
       </c>
       <c r="G24" t="n">
-        <v>44.80454181192012</v>
+        <v>44.80454181192013</v>
       </c>
       <c r="H24" t="n">
-        <v>7.724264031944653</v>
+        <v>7.724264031944649</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,25 +2416,25 @@
         <v>12.13759981887708</v>
       </c>
       <c r="P24" t="n">
-        <v>36.6718397696787</v>
+        <v>36.67183976967869</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.07951133942160984</v>
+        <v>0.0795113394216104</v>
       </c>
       <c r="R24" t="n">
-        <v>1.474295357179918</v>
+        <v>1.474295357179917</v>
       </c>
       <c r="S24" t="n">
-        <v>0.5486511873395223</v>
+        <v>0.5486511873395206</v>
       </c>
       <c r="T24" t="n">
-        <v>1.526811758311842</v>
+        <v>1.526811758311853</v>
       </c>
       <c r="U24" t="n">
         <v>1.103153647358229</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5266908474744019</v>
+        <v>0.5266908474744028</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002723399999993603</v>
+        <v>0.001535399999994524</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2468,7 +2468,7 @@
         <v>359.9349583093719</v>
       </c>
       <c r="F25" t="n">
-        <v>29.43657783422868</v>
+        <v>29.43657783422867</v>
       </c>
       <c r="G25" t="n">
         <v>92.71720632468281</v>
@@ -2498,25 +2498,25 @@
         <v>34.91577077136832</v>
       </c>
       <c r="P25" t="n">
-        <v>31.72268750182979</v>
+        <v>31.72268750182977</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.07707655697396874</v>
+        <v>0.07707655697396572</v>
       </c>
       <c r="R25" t="n">
-        <v>1.588034566886918</v>
+        <v>1.588034566886917</v>
       </c>
       <c r="S25" t="n">
-        <v>1.110881283463824</v>
+        <v>1.110881283463801</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3849614045414546</v>
+        <v>0.384961404541443</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9161982148164584</v>
+        <v>0.916198214816458</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0925852300226301</v>
+        <v>0.09258523002263257</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.005032299999996326</v>
+        <v>0.002237900000004345</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2556,7 +2556,7 @@
         <v>170.418634004148</v>
       </c>
       <c r="H26" t="n">
-        <v>9.972752832440303</v>
+        <v>9.972752832440307</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2583,22 +2583,22 @@
         <v>15.11536726035089</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.05926635113343359</v>
+        <v>0.05926635113343309</v>
       </c>
       <c r="R26" t="n">
-        <v>0.7049110255188867</v>
+        <v>0.7049110255188981</v>
       </c>
       <c r="S26" t="n">
-        <v>0.2303596064488167</v>
+        <v>0.2303596064488146</v>
       </c>
       <c r="T26" t="n">
         <v>0.8216841623958494</v>
       </c>
       <c r="U26" t="n">
-        <v>0.9724272818846519</v>
+        <v>0.9724272818846524</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4948600536151984</v>
+        <v>0.4948600536151972</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002315800000005197</v>
+        <v>0.001786700000003805</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2632,13 +2632,13 @@
         <v>0.02398740323413261</v>
       </c>
       <c r="F27" t="n">
-        <v>31.38935317638675</v>
+        <v>31.38935317638673</v>
       </c>
       <c r="G27" t="n">
         <v>156.0299368056028</v>
       </c>
       <c r="H27" t="n">
-        <v>10.49420754876152</v>
+        <v>10.49420754876151</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2662,25 +2662,25 @@
         <v>20.04491307647874</v>
       </c>
       <c r="P27" t="n">
-        <v>18.3793327536549</v>
+        <v>18.37933275365488</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.07103588973053944</v>
+        <v>0.07103588973053901</v>
       </c>
       <c r="R27" t="n">
-        <v>1.069185275681752</v>
+        <v>1.069185275681826</v>
       </c>
       <c r="S27" t="n">
-        <v>0.4225426792048487</v>
+        <v>0.4225426792048728</v>
       </c>
       <c r="T27" t="n">
-        <v>0.5314328518713257</v>
+        <v>0.5314328518713001</v>
       </c>
       <c r="U27" t="n">
         <v>1.068538646756743</v>
       </c>
       <c r="V27" t="n">
-        <v>0.2730731550051214</v>
+        <v>0.2730731550051178</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.004033499999991363</v>
+        <v>0.002020600000001593</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2714,13 +2714,13 @@
         <v>0.0687236052957477</v>
       </c>
       <c r="F28" t="n">
-        <v>30.20636542085701</v>
+        <v>30.206365420857</v>
       </c>
       <c r="G28" t="n">
         <v>59.02385103384772</v>
       </c>
       <c r="H28" t="n">
-        <v>8.677921923125105</v>
+        <v>8.677921923125094</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>17.09747164315388</v>
       </c>
       <c r="P28" t="n">
-        <v>34.47312279327441</v>
+        <v>34.47312279327438</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.07635985625053458</v>
+        <v>0.07635985625054165</v>
       </c>
       <c r="R28" t="n">
-        <v>1.384444512473158</v>
+        <v>1.384444512473245</v>
       </c>
       <c r="S28" t="n">
-        <v>0.6491722510792162</v>
+        <v>0.6491722510793126</v>
       </c>
       <c r="T28" t="n">
-        <v>1.069014944766353</v>
+        <v>1.069014944766492</v>
       </c>
       <c r="U28" t="n">
-        <v>0.9601539788335821</v>
+        <v>0.9601539788335826</v>
       </c>
       <c r="V28" t="n">
-        <v>0.2996033309594868</v>
+        <v>0.2996033309594907</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004625099999998383</v>
+        <v>0.00185170000000312</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,10 +2796,10 @@
         <v>359.7847477175138</v>
       </c>
       <c r="F29" t="n">
-        <v>30.35211679915856</v>
+        <v>30.35211679915857</v>
       </c>
       <c r="G29" t="n">
-        <v>74.80486453762984</v>
+        <v>74.80486453762983</v>
       </c>
       <c r="H29" t="n">
         <v>13.51162612554131</v>
@@ -2823,28 +2823,28 @@
         <v>34.86118304053818</v>
       </c>
       <c r="O29" t="n">
-        <v>27.57465512815713</v>
+        <v>27.57465512815712</v>
       </c>
       <c r="P29" t="n">
-        <v>36.08419448135734</v>
+        <v>36.08419448135735</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.08243968113904396</v>
+        <v>0.08243968113904192</v>
       </c>
       <c r="R29" t="n">
-        <v>1.639719407211517</v>
+        <v>1.639719407211513</v>
       </c>
       <c r="S29" t="n">
-        <v>1.053969295741293</v>
+        <v>1.053969295741279</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6864317982095477</v>
+        <v>0.6864317982095273</v>
       </c>
       <c r="U29" t="n">
         <v>1.035144147119747</v>
       </c>
       <c r="V29" t="n">
-        <v>0.2725347452612303</v>
+        <v>0.2725347452612331</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.00439869999999587</v>
+        <v>0.002069900000002178</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>359.9786245447614</v>
       </c>
       <c r="F30" t="n">
-        <v>29.95984013127699</v>
+        <v>29.95984013127698</v>
       </c>
       <c r="G30" t="n">
-        <v>130.2143288923639</v>
+        <v>130.214328892364</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695793448025047</v>
+        <v>9.695793448025041</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2908,16 +2908,16 @@
         <v>26.86113970128137</v>
       </c>
       <c r="P30" t="n">
-        <v>22.22989692189686</v>
+        <v>22.22989692189684</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.07219535906514987</v>
+        <v>0.07219535906515714</v>
       </c>
       <c r="R30" t="n">
-        <v>1.226406793397199</v>
+        <v>1.226406793397545</v>
       </c>
       <c r="S30" t="n">
-        <v>0.6040917599380941</v>
+        <v>0.6040917599382605</v>
       </c>
       <c r="T30" t="n">
         <v>0.4086807444797352</v>
@@ -2926,7 +2926,7 @@
         <v>0.9583899320849917</v>
       </c>
       <c r="V30" t="n">
-        <v>0.05569151961475961</v>
+        <v>0.05569151961475848</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002485799999988103</v>
+        <v>0.002601800000000765</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -2960,13 +2960,13 @@
         <v>359.9048041914211</v>
       </c>
       <c r="F31" t="n">
-        <v>30.65343395778138</v>
+        <v>30.6534339577814</v>
       </c>
       <c r="G31" t="n">
-        <v>147.1961136585008</v>
+        <v>147.1961136585007</v>
       </c>
       <c r="H31" t="n">
-        <v>5.675972130738423</v>
+        <v>5.675972130738421</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2990,25 +2990,25 @@
         <v>12.16452961116582</v>
       </c>
       <c r="P31" t="n">
-        <v>22.82453015061185</v>
+        <v>22.82453015061187</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.06868152157461874</v>
+        <v>0.06868152157461843</v>
       </c>
       <c r="R31" t="n">
-        <v>0.993704998716483</v>
+        <v>0.9937049987164622</v>
       </c>
       <c r="S31" t="n">
-        <v>0.3396056974144993</v>
+        <v>0.3396056974144863</v>
       </c>
       <c r="T31" t="n">
         <v>1.032180731265708</v>
       </c>
       <c r="U31" t="n">
-        <v>1.005670859365978</v>
+        <v>1.005670859365979</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6717715827132877</v>
+        <v>0.671771582713292</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.00234470000000897</v>
+        <v>0.001706000000005758</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3042,13 +3042,13 @@
         <v>0.09343921915658322</v>
       </c>
       <c r="F32" t="n">
-        <v>28.66944389194942</v>
+        <v>28.66944389194944</v>
       </c>
       <c r="G32" t="n">
-        <v>117.6504288010853</v>
+        <v>117.6504288010852</v>
       </c>
       <c r="H32" t="n">
-        <v>7.090528386763356</v>
+        <v>7.090528386763364</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,25 +3072,25 @@
         <v>21.60531176581527</v>
       </c>
       <c r="P32" t="n">
-        <v>23.77474968544261</v>
+        <v>23.77474968544264</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.06829386043642756</v>
+        <v>0.06829386043643121</v>
       </c>
       <c r="R32" t="n">
-        <v>1.077187671875903</v>
+        <v>1.077187671876084</v>
       </c>
       <c r="S32" t="n">
-        <v>0.5150655866169354</v>
+        <v>0.5150655866170243</v>
       </c>
       <c r="T32" t="n">
-        <v>0.5699763020917364</v>
+        <v>0.569976302091747</v>
       </c>
       <c r="U32" t="n">
-        <v>0.9937755377131506</v>
+        <v>0.9937755377131499</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3303538199986403</v>
+        <v>0.3303538199986324</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.00312900000000127</v>
+        <v>0.001711199999995472</v>
       </c>
       <c r="Y32" t="n">
         <v>7</v>
@@ -3127,10 +3127,10 @@
         <v>28.88540077486149</v>
       </c>
       <c r="G33" t="n">
-        <v>50.39556383954331</v>
+        <v>50.39556383954334</v>
       </c>
       <c r="H33" t="n">
-        <v>13.91691096100351</v>
+        <v>13.91691096100349</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3154,25 +3154,25 @@
         <v>20.93825023004772</v>
       </c>
       <c r="P33" t="n">
-        <v>39.52506378522648</v>
+        <v>39.52506378522646</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.07589311077293869</v>
+        <v>0.07589311077293666</v>
       </c>
       <c r="R33" t="n">
-        <v>1.495747044618048</v>
+        <v>1.495747044618075</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8814538256291216</v>
+        <v>0.8814538256291172</v>
       </c>
       <c r="T33" t="n">
-        <v>1.083603114019307</v>
+        <v>1.083603114019271</v>
       </c>
       <c r="U33" t="n">
-        <v>1.025432860453458</v>
+        <v>1.025432860453459</v>
       </c>
       <c r="V33" t="n">
-        <v>0.2389577131737971</v>
+        <v>0.2389577131738009</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.007962000000006242</v>
+        <v>0.002814300000004266</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3206,13 +3206,13 @@
         <v>359.8460860672395</v>
       </c>
       <c r="F34" t="n">
-        <v>29.32471459301688</v>
+        <v>29.32471459301689</v>
       </c>
       <c r="G34" t="n">
         <v>151.2312579430349</v>
       </c>
       <c r="H34" t="n">
-        <v>6.85163862076799</v>
+        <v>6.851638620767988</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3236,25 +3236,25 @@
         <v>14.51480711173123</v>
       </c>
       <c r="P34" t="n">
-        <v>20.14406245405953</v>
+        <v>20.14406245405954</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.06589319305803004</v>
+        <v>0.06589319305802872</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8860628967044575</v>
+        <v>0.8860628967044673</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3346002774292406</v>
+        <v>0.334600277429235</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7852786200075172</v>
+        <v>0.7852786200075034</v>
       </c>
       <c r="U34" t="n">
         <v>1.010354799099531</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3272156212979278</v>
+        <v>0.3272156212979304</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002284699999989925</v>
+        <v>0.001678099999999461</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3288,13 +3288,13 @@
         <v>0.3007295808126434</v>
       </c>
       <c r="F35" t="n">
-        <v>29.51324072298326</v>
+        <v>29.51324072298327</v>
       </c>
       <c r="G35" t="n">
-        <v>57.82245917832737</v>
+        <v>57.8224591783274</v>
       </c>
       <c r="H35" t="n">
-        <v>5.900376209859748</v>
+        <v>5.900376209859751</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>13.42179367070298</v>
       </c>
       <c r="P35" t="n">
-        <v>31.52823748607713</v>
+        <v>31.52823748607715</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.07184032366314747</v>
+        <v>0.07184032366314695</v>
       </c>
       <c r="R35" t="n">
-        <v>1.201660778980351</v>
+        <v>1.201660778980391</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4769984782356864</v>
+        <v>0.476998478235702</v>
       </c>
       <c r="T35" t="n">
         <v>1.214256637720634</v>
       </c>
       <c r="U35" t="n">
-        <v>0.9598791532904182</v>
+        <v>0.9598791532904184</v>
       </c>
       <c r="V35" t="n">
         <v>1.266603890687819</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002425700000003417</v>
+        <v>0.001771400000002643</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3370,13 +3370,13 @@
         <v>359.9563415240235</v>
       </c>
       <c r="F36" t="n">
-        <v>30.86886098678908</v>
+        <v>30.86886098678906</v>
       </c>
       <c r="G36" t="n">
-        <v>8.212312339329364</v>
+        <v>8.212312339329351</v>
       </c>
       <c r="H36" t="n">
-        <v>10.9963125571836</v>
+        <v>10.99631255718361</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3403,22 +3403,22 @@
         <v>41.42384937173778</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.07003906490503968</v>
+        <v>0.07003906490504225</v>
       </c>
       <c r="R36" t="n">
-        <v>2.010386443020547</v>
+        <v>2.010386443020554</v>
       </c>
       <c r="S36" t="n">
-        <v>0.2979391652767658</v>
+        <v>0.2979391652767803</v>
       </c>
       <c r="T36" t="n">
-        <v>3.297280549090402</v>
+        <v>3.29728054909058</v>
       </c>
       <c r="U36" t="n">
         <v>0.9553354818109454</v>
       </c>
       <c r="V36" t="n">
-        <v>0.3819872361900002</v>
+        <v>0.381987236189997</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002454399999990642</v>
+        <v>0.001495300000001976</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3452,13 +3452,13 @@
         <v>359.9321537314917</v>
       </c>
       <c r="F37" t="n">
-        <v>30.43805907369239</v>
+        <v>30.4380590736924</v>
       </c>
       <c r="G37" t="n">
-        <v>84.70540392234818</v>
+        <v>84.70540392234817</v>
       </c>
       <c r="H37" t="n">
-        <v>6.865763531103226</v>
+        <v>6.86576353110323</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3482,25 +3482,25 @@
         <v>18.09304311691345</v>
       </c>
       <c r="P37" t="n">
-        <v>30.06873009765571</v>
+        <v>30.06873009765572</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.07573745707143006</v>
+        <v>0.07573745707143435</v>
       </c>
       <c r="R37" t="n">
-        <v>1.296326162376752</v>
+        <v>1.296326162376827</v>
       </c>
       <c r="S37" t="n">
-        <v>0.5919934829690262</v>
+        <v>0.5919934829690862</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8688885924954076</v>
+        <v>0.86888859249546</v>
       </c>
       <c r="U37" t="n">
-        <v>1.043706793382002</v>
+        <v>1.043706793382003</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1978388124664663</v>
+        <v>0.1978388124664688</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.005607800000007046</v>
+        <v>0.001714799999994909</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3534,13 +3534,13 @@
         <v>0.09341906863957816</v>
       </c>
       <c r="F38" t="n">
-        <v>29.01641563283201</v>
+        <v>29.01641563283203</v>
       </c>
       <c r="G38" t="n">
         <v>133.1615110631099</v>
       </c>
       <c r="H38" t="n">
-        <v>9.866260410271137</v>
+        <v>9.86626041027114</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3567,22 +3567,22 @@
         <v>20.78530243246288</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.06848463935537422</v>
+        <v>0.06848463935537856</v>
       </c>
       <c r="R38" t="n">
-        <v>1.148190642468327</v>
+        <v>1.148190642468366</v>
       </c>
       <c r="S38" t="n">
-        <v>0.5761311891108436</v>
+        <v>0.5761311891108852</v>
       </c>
       <c r="T38" t="n">
-        <v>0.367869973731046</v>
+        <v>0.3678699737310449</v>
       </c>
       <c r="U38" t="n">
         <v>1.105918676221442</v>
       </c>
       <c r="V38" t="n">
-        <v>0.2286506063485101</v>
+        <v>0.22865060634851</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.0025035000000031</v>
+        <v>0.001857299999997508</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3616,13 +3616,13 @@
         <v>359.829101881943</v>
       </c>
       <c r="F39" t="n">
-        <v>30.62110967020304</v>
+        <v>30.62110967020305</v>
       </c>
       <c r="G39" t="n">
         <v>164.0022481148418</v>
       </c>
       <c r="H39" t="n">
-        <v>7.188464415967646</v>
+        <v>7.188464415967642</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3646,25 +3646,25 @@
         <v>9.945404634227309</v>
       </c>
       <c r="P39" t="n">
-        <v>20.0132670680577</v>
+        <v>20.01326706805771</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.064231918674059</v>
+        <v>0.06423191867405839</v>
       </c>
       <c r="R39" t="n">
-        <v>0.9012165539207351</v>
+        <v>0.9012165539207337</v>
       </c>
       <c r="S39" t="n">
-        <v>0.2647849084866095</v>
+        <v>0.2647849084866058</v>
       </c>
       <c r="T39" t="n">
-        <v>1.130841646585812</v>
+        <v>1.130841646585795</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9650394492353586</v>
+        <v>0.965039449235359</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8490771745047585</v>
+        <v>0.8490771745047616</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.005180800000005092</v>
+        <v>0.001693500000001791</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3698,13 +3698,13 @@
         <v>359.7800019732126</v>
       </c>
       <c r="F40" t="n">
-        <v>30.7616465621963</v>
+        <v>30.76164656219631</v>
       </c>
       <c r="G40" t="n">
-        <v>68.94313477097491</v>
+        <v>68.94313477097489</v>
       </c>
       <c r="H40" t="n">
-        <v>13.99442589143218</v>
+        <v>13.9944258914322</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3728,25 +3728,25 @@
         <v>26.07328611190761</v>
       </c>
       <c r="P40" t="n">
-        <v>38.05116736079158</v>
+        <v>38.0511673607916</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.08415136315527082</v>
+        <v>0.08415136315526903</v>
       </c>
       <c r="R40" t="n">
-        <v>1.698175333863272</v>
+        <v>1.698175333863318</v>
       </c>
       <c r="S40" t="n">
-        <v>1.075803878546367</v>
+        <v>1.075803878546384</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8014495812839697</v>
+        <v>0.8014495812839547</v>
       </c>
       <c r="U40" t="n">
         <v>1.062781208700913</v>
       </c>
       <c r="V40" t="n">
-        <v>0.2123930708080509</v>
+        <v>0.2123930708080553</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002728799999999865</v>
+        <v>0.002199499999996135</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3780,13 +3780,13 @@
         <v>0.004707666122076655</v>
       </c>
       <c r="F41" t="n">
-        <v>28.77679482670898</v>
+        <v>28.77679482670902</v>
       </c>
       <c r="G41" t="n">
         <v>98.11971500302654</v>
       </c>
       <c r="H41" t="n">
-        <v>11.96498143827328</v>
+        <v>11.9649814382733</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3810,25 +3810,25 @@
         <v>32.52156268013318</v>
       </c>
       <c r="P41" t="n">
-        <v>28.62048642646078</v>
+        <v>28.62048642646083</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.07308572741531248</v>
+        <v>0.0730857274153122</v>
       </c>
       <c r="R41" t="n">
-        <v>1.406162365297109</v>
+        <v>1.406162365297175</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9034901914662368</v>
+        <v>0.9034901914662655</v>
       </c>
       <c r="T41" t="n">
-        <v>0.3845043225218859</v>
+        <v>0.3845043225218833</v>
       </c>
       <c r="U41" t="n">
         <v>1.044450378069703</v>
       </c>
       <c r="V41" t="n">
-        <v>0.2191491641489377</v>
+        <v>0.21914916414893</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004869999999996821</v>
+        <v>0.00214650000000205</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3862,13 +3862,13 @@
         <v>359.9582846106239</v>
       </c>
       <c r="F42" t="n">
-        <v>30.53224632765771</v>
+        <v>30.53224632765772</v>
       </c>
       <c r="G42" t="n">
-        <v>56.23379587628325</v>
+        <v>56.23379587628312</v>
       </c>
       <c r="H42" t="n">
-        <v>4.656555190930141</v>
+        <v>4.656555190930153</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3892,25 +3892,25 @@
         <v>10.57848652344394</v>
       </c>
       <c r="P42" t="n">
-        <v>31.55799033223148</v>
+        <v>31.55799033223151</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.07282463223062062</v>
+        <v>0.07282463223062158</v>
       </c>
       <c r="R42" t="n">
-        <v>1.236428417491946</v>
+        <v>1.236428417491947</v>
       </c>
       <c r="S42" t="n">
-        <v>0.4122090515593869</v>
+        <v>0.4122090515593904</v>
       </c>
       <c r="T42" t="n">
-        <v>1.462309127545157</v>
+        <v>1.462309127545193</v>
       </c>
       <c r="U42" t="n">
         <v>0.9688869831925278</v>
       </c>
       <c r="V42" t="n">
-        <v>1.260772677224887</v>
+        <v>1.2607726772249</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.00217489999999998</v>
+        <v>0.001595999999999265</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3947,10 +3947,10 @@
         <v>29.93981839135502</v>
       </c>
       <c r="G43" t="n">
-        <v>105.1825482588455</v>
+        <v>105.1825482588456</v>
       </c>
       <c r="H43" t="n">
-        <v>2.019151785329431</v>
+        <v>2.019151785329432</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>26.93507440627398</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.06707475163489571</v>
+        <v>0.06707475163489617</v>
       </c>
       <c r="R43" t="n">
-        <v>1.142280299479406</v>
+        <v>1.142280299479407</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2830842381942489</v>
+        <v>0.2830842381942509</v>
       </c>
       <c r="T43" t="n">
-        <v>1.665869128729195</v>
+        <v>1.665869128729222</v>
       </c>
       <c r="U43" t="n">
         <v>1.002144589508265</v>
       </c>
       <c r="V43" t="n">
-        <v>2.80834792844692</v>
+        <v>2.808347928446921</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.004317200000002686</v>
+        <v>0.001711299999996641</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,13 +4026,13 @@
         <v>0.2105157509199788</v>
       </c>
       <c r="F44" t="n">
-        <v>29.750964346613</v>
+        <v>29.75096434661298</v>
       </c>
       <c r="G44" t="n">
-        <v>70.9581566404747</v>
+        <v>70.95815664047468</v>
       </c>
       <c r="H44" t="n">
-        <v>13.28879492244254</v>
+        <v>13.28879492244253</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4056,25 +4056,25 @@
         <v>26.82693730035886</v>
       </c>
       <c r="P44" t="n">
-        <v>36.23717241254835</v>
+        <v>36.23717241254833</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.07611830807218146</v>
+        <v>0.0761183080721808</v>
       </c>
       <c r="R44" t="n">
-        <v>1.581179074633139</v>
+        <v>1.581179074633065</v>
       </c>
       <c r="S44" t="n">
-        <v>1.013267612403788</v>
+        <v>1.013267612403749</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7335876082466144</v>
+        <v>0.7335876082466066</v>
       </c>
       <c r="U44" t="n">
-        <v>0.9374803998464226</v>
+        <v>0.9374803998464227</v>
       </c>
       <c r="V44" t="n">
-        <v>0.388079113359761</v>
+        <v>0.3880791133597641</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002721399999998653</v>
+        <v>0.002017999999999631</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4108,7 +4108,7 @@
         <v>359.9226050043818</v>
       </c>
       <c r="F45" t="n">
-        <v>28.80435031451044</v>
+        <v>28.80435031451043</v>
       </c>
       <c r="G45" t="n">
         <v>18.2542217090238</v>
@@ -4141,22 +4141,22 @@
         <v>39.90532144138875</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.07165491230676767</v>
+        <v>0.07165491230676951</v>
       </c>
       <c r="R45" t="n">
-        <v>1.432040483991217</v>
+        <v>1.432040483991215</v>
       </c>
       <c r="S45" t="n">
-        <v>0.4135880904096911</v>
+        <v>0.4135880904097054</v>
       </c>
       <c r="T45" t="n">
-        <v>2.096215802363897</v>
+        <v>2.096215802363963</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9777736961230448</v>
+        <v>0.9777736961230445</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4565192915121311</v>
+        <v>0.4565192915121324</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002411300000005667</v>
+        <v>0.001443300000005365</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4190,13 +4190,13 @@
         <v>0.03347381635609015</v>
       </c>
       <c r="F46" t="n">
-        <v>32.37987085911639</v>
+        <v>32.37987085911638</v>
       </c>
       <c r="G46" t="n">
         <v>148.3384710529259</v>
       </c>
       <c r="H46" t="n">
-        <v>4.636997722921878</v>
+        <v>4.636997722921874</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4223,22 +4223,22 @@
         <v>25.36253840247433</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.07131541742873654</v>
+        <v>0.07131541742873726</v>
       </c>
       <c r="R46" t="n">
-        <v>1.141173248103171</v>
+        <v>1.141173248103189</v>
       </c>
       <c r="S46" t="n">
-        <v>0.3227350678168763</v>
+        <v>0.3227350678168795</v>
       </c>
       <c r="T46" t="n">
-        <v>1.44294695911605</v>
+        <v>1.442946959116075</v>
       </c>
       <c r="U46" t="n">
         <v>0.9976053160136262</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4622632362068912</v>
+        <v>0.4622632362068888</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002312699999990286</v>
+        <v>0.002344199999996022</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4278,7 +4278,7 @@
         <v>179.2842260731273</v>
       </c>
       <c r="H47" t="n">
-        <v>11.27236129437055</v>
+        <v>11.27236129437054</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4299,28 +4299,28 @@
         <v>15.9542760494317</v>
       </c>
       <c r="O47" t="n">
-        <v>5.553776175293439</v>
+        <v>5.553776175293427</v>
       </c>
       <c r="P47" t="n">
         <v>14.2773785555247</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.05269688424148722</v>
+        <v>0.05269688424148441</v>
       </c>
       <c r="R47" t="n">
-        <v>0.9462038163308032</v>
+        <v>0.9462038163307604</v>
       </c>
       <c r="S47" t="n">
-        <v>0.1397359784183278</v>
+        <v>0.1397359784183214</v>
       </c>
       <c r="T47" t="n">
-        <v>1.379151499677297</v>
+        <v>1.379151499677207</v>
       </c>
       <c r="U47" t="n">
         <v>0.9425532162424658</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6653663631736142</v>
+        <v>0.6653663631736201</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002224099999992291</v>
+        <v>0.001692999999995948</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4354,7 +4354,7 @@
         <v>0.05339601086826343</v>
       </c>
       <c r="F48" t="n">
-        <v>30.05935694145071</v>
+        <v>30.05935694145072</v>
       </c>
       <c r="G48" t="n">
         <v>142.5698556086218</v>
@@ -4381,28 +4381,28 @@
         <v>19.73114991147893</v>
       </c>
       <c r="O48" t="n">
-        <v>27.77521748026089</v>
+        <v>27.7752174802609</v>
       </c>
       <c r="P48" t="n">
-        <v>19.42172692982543</v>
+        <v>19.42172692982544</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.07037068050609607</v>
+        <v>0.07037068050609828</v>
       </c>
       <c r="R48" t="n">
-        <v>1.18087512570626</v>
+        <v>1.18087512570625</v>
       </c>
       <c r="S48" t="n">
-        <v>0.5520348787289439</v>
+        <v>0.5520348787289492</v>
       </c>
       <c r="T48" t="n">
-        <v>0.3747988103483448</v>
+        <v>0.3747988103483477</v>
       </c>
       <c r="U48" t="n">
         <v>1.030487689708282</v>
       </c>
       <c r="V48" t="n">
-        <v>0.1154475474762029</v>
+        <v>0.1154475474762028</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.00257750000000101</v>
+        <v>0.001782399999996187</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4436,10 +4436,10 @@
         <v>0.03113353613151007</v>
       </c>
       <c r="F49" t="n">
-        <v>30.77288988027367</v>
+        <v>30.77288988027369</v>
       </c>
       <c r="G49" t="n">
-        <v>21.31250563068036</v>
+        <v>21.31250563068037</v>
       </c>
       <c r="H49" t="n">
         <v>14.02364640606619</v>
@@ -4466,25 +4466,25 @@
         <v>9.459591340755312</v>
       </c>
       <c r="P49" t="n">
-        <v>44.4383212833906</v>
+        <v>44.43832128339061</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.07964505447990265</v>
+        <v>0.07964505447990225</v>
       </c>
       <c r="R49" t="n">
-        <v>1.633643959662713</v>
+        <v>1.633643959662653</v>
       </c>
       <c r="S49" t="n">
-        <v>0.5482113750302253</v>
+        <v>0.5482113750302022</v>
       </c>
       <c r="T49" t="n">
-        <v>2.161337300852163</v>
+        <v>2.161337300852134</v>
       </c>
       <c r="U49" t="n">
         <v>0.9957990317089112</v>
       </c>
       <c r="V49" t="n">
-        <v>0.1418239271522278</v>
+        <v>0.1418239271522267</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001899199999996881</v>
+        <v>0.001436599999998123</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4518,13 +4518,13 @@
         <v>359.9867193200264</v>
       </c>
       <c r="F50" t="n">
-        <v>27.9875993339954</v>
+        <v>27.98759933399541</v>
       </c>
       <c r="G50" t="n">
         <v>2.509402689528198</v>
       </c>
       <c r="H50" t="n">
-        <v>14.96498979678553</v>
+        <v>14.96498979678552</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4548,25 +4548,25 @@
         <v>2.578139403852508</v>
       </c>
       <c r="P50" t="n">
-        <v>43.35588766546377</v>
+        <v>43.35588766546378</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.06079884621275669</v>
+        <v>0.06079884621275588</v>
       </c>
       <c r="R50" t="n">
-        <v>2.486063306990951</v>
+        <v>2.486063306990954</v>
       </c>
       <c r="S50" t="n">
-        <v>0.22808851732339</v>
+        <v>0.2280885173233853</v>
       </c>
       <c r="T50" t="n">
-        <v>4.070463565315449</v>
+        <v>4.070463565315389</v>
       </c>
       <c r="U50" t="n">
         <v>1.018770077578448</v>
       </c>
       <c r="V50" t="n">
-        <v>0.2986998511245282</v>
+        <v>0.2986998511245267</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.002555100000009247</v>
+        <v>0.001603000000002908</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4600,13 +4600,13 @@
         <v>359.9670362086138</v>
       </c>
       <c r="F51" t="n">
-        <v>28.65124719524654</v>
+        <v>28.65124719524655</v>
       </c>
       <c r="G51" t="n">
-        <v>49.98900984332774</v>
+        <v>49.98900984332779</v>
       </c>
       <c r="H51" t="n">
-        <v>6.023306183802092</v>
+        <v>6.023306183802084</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4630,16 +4630,16 @@
         <v>12.30047718210179</v>
       </c>
       <c r="P51" t="n">
-        <v>31.4028806605721</v>
+        <v>31.40288066057209</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.06999456221497526</v>
+        <v>0.0699945622149751</v>
       </c>
       <c r="R51" t="n">
-        <v>1.143374071966972</v>
+        <v>1.143374071967001</v>
       </c>
       <c r="S51" t="n">
-        <v>0.4377833815152301</v>
+        <v>0.4377833815152366</v>
       </c>
       <c r="T51" t="n">
         <v>1.258749794451462</v>
@@ -4648,7 +4648,7 @@
         <v>0.9101181637057953</v>
       </c>
       <c r="V51" t="n">
-        <v>0.215911490950433</v>
+        <v>0.2159114909504284</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002181300000003716</v>
+        <v>0.001620899999998926</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4682,13 +4682,13 @@
         <v>359.9766150409251</v>
       </c>
       <c r="F52" t="n">
-        <v>29.87127727067729</v>
+        <v>29.8712772706773</v>
       </c>
       <c r="G52" t="n">
-        <v>84.50044188435898</v>
+        <v>84.50044188435893</v>
       </c>
       <c r="H52" t="n">
-        <v>5.911782981072458</v>
+        <v>5.911782981072462</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4712,25 +4712,25 @@
         <v>16.39639118773252</v>
       </c>
       <c r="P52" t="n">
-        <v>29.11902041576122</v>
+        <v>29.11902041576123</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.07310945932182708</v>
+        <v>0.07310945932182795</v>
       </c>
       <c r="R52" t="n">
-        <v>1.201641083556707</v>
+        <v>1.201641083556643</v>
       </c>
       <c r="S52" t="n">
-        <v>0.5212346737485357</v>
+        <v>0.5212346737485198</v>
       </c>
       <c r="T52" t="n">
-        <v>0.9288649213209802</v>
+        <v>0.9288649213209894</v>
       </c>
       <c r="U52" t="n">
         <v>0.9803829101164452</v>
       </c>
       <c r="V52" t="n">
-        <v>0.2345753350054227</v>
+        <v>0.2345753350054263</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.003755499999996914</v>
+        <v>0.00146349999999984</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4764,13 +4764,13 @@
         <v>359.9943769685486</v>
       </c>
       <c r="F53" t="n">
-        <v>28.887874431534</v>
+        <v>28.88787443153401</v>
       </c>
       <c r="G53" t="n">
-        <v>92.61662964794058</v>
+        <v>92.61662964794074</v>
       </c>
       <c r="H53" t="n">
-        <v>3.092828010259794</v>
+        <v>3.092828010259793</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4794,25 +4794,25 @@
         <v>10.57936830873115</v>
       </c>
       <c r="P53" t="n">
-        <v>26.55344388596381</v>
+        <v>26.5534438859638</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.06630857869265105</v>
+        <v>0.06630857869265024</v>
       </c>
       <c r="R53" t="n">
-        <v>1.018096110191259</v>
+        <v>1.018096110191265</v>
       </c>
       <c r="S53" t="n">
-        <v>0.3351272989395593</v>
+        <v>0.3351272989395494</v>
       </c>
       <c r="T53" t="n">
-        <v>1.253583417043459</v>
+        <v>1.253583417043437</v>
       </c>
       <c r="U53" t="n">
-        <v>0.9731997137033062</v>
+        <v>0.9731997137033059</v>
       </c>
       <c r="V53" t="n">
-        <v>1.147279367675449</v>
+        <v>1.147279367675445</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002198899999996229</v>
+        <v>0.002084799999998665</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4849,10 +4849,10 @@
         <v>31.49643365004667</v>
       </c>
       <c r="G54" t="n">
-        <v>105.3463049655227</v>
+        <v>105.3463049655222</v>
       </c>
       <c r="H54" t="n">
-        <v>2.467329328699319</v>
+        <v>2.467329328699317</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4873,28 +4873,28 @@
         <v>24.22727636912567</v>
       </c>
       <c r="O54" t="n">
-        <v>7.936367086330407</v>
+        <v>7.93636708633042</v>
       </c>
       <c r="P54" t="n">
-        <v>28.36800947511457</v>
+        <v>28.36800947511459</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.06953006202063727</v>
+        <v>0.06953006202063798</v>
       </c>
       <c r="R54" t="n">
-        <v>1.218817747535315</v>
+        <v>1.218817747535299</v>
       </c>
       <c r="S54" t="n">
-        <v>0.3131999886740802</v>
+        <v>0.3131999886740884</v>
       </c>
       <c r="T54" t="n">
-        <v>1.687872040585813</v>
+        <v>1.68787204058582</v>
       </c>
       <c r="U54" t="n">
-        <v>0.9231137297659401</v>
+        <v>0.9231137297659403</v>
       </c>
       <c r="V54" t="n">
-        <v>2.039579474922312</v>
+        <v>2.039579474922326</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002177799999998342</v>
+        <v>0.00166269999999713</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4928,13 +4928,13 @@
         <v>359.9034827914786</v>
       </c>
       <c r="F55" t="n">
-        <v>29.9363826819525</v>
+        <v>29.93638268195248</v>
       </c>
       <c r="G55" t="n">
         <v>150.5639376861421</v>
       </c>
       <c r="H55" t="n">
-        <v>9.516105614551158</v>
+        <v>9.516105614551151</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4961,22 +4961,22 @@
         <v>18.63345552297915</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.06930269864401181</v>
+        <v>0.06930269864401227</v>
       </c>
       <c r="R55" t="n">
-        <v>1.011883301918294</v>
+        <v>1.011883301918413</v>
       </c>
       <c r="S55" t="n">
-        <v>0.4267426456117431</v>
+        <v>0.4267426456117726</v>
       </c>
       <c r="T55" t="n">
-        <v>0.4900103744400957</v>
+        <v>0.4900103744400929</v>
       </c>
       <c r="U55" t="n">
         <v>1.12181596613154</v>
       </c>
       <c r="V55" t="n">
-        <v>0.1484171234878541</v>
+        <v>0.1484171234878571</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002524600000000987</v>
+        <v>0.001761600000001806</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5010,13 +5010,13 @@
         <v>0.1925786858211015</v>
       </c>
       <c r="F56" t="n">
-        <v>28.47818105311416</v>
+        <v>28.47818105311418</v>
       </c>
       <c r="G56" t="n">
-        <v>83.11318560038669</v>
+        <v>83.11318560038663</v>
       </c>
       <c r="H56" t="n">
-        <v>6.299026471246654</v>
+        <v>6.299026471246663</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>18.14123615804548</v>
       </c>
       <c r="P56" t="n">
-        <v>28.1682135842786</v>
+        <v>28.16821358427863</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.06911215591603663</v>
+        <v>0.0691121559160356</v>
       </c>
       <c r="R56" t="n">
-        <v>1.120899633254409</v>
+        <v>1.120899633254323</v>
       </c>
       <c r="S56" t="n">
-        <v>0.5252860837201027</v>
+        <v>0.525286083720062</v>
       </c>
       <c r="T56" t="n">
-        <v>0.8158642422795991</v>
+        <v>0.8158642422795835</v>
       </c>
       <c r="U56" t="n">
-        <v>0.9838580237330663</v>
+        <v>0.9838580237330666</v>
       </c>
       <c r="V56" t="n">
-        <v>0.7209927437491075</v>
+        <v>0.7209927437491015</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.001926100000005704</v>
+        <v>0.001416299999995374</v>
       </c>
       <c r="Y56" t="n">
         <v>7</v>
@@ -5092,13 +5092,13 @@
         <v>359.9038029714334</v>
       </c>
       <c r="F57" t="n">
-        <v>30.57842092790981</v>
+        <v>30.57842092790983</v>
       </c>
       <c r="G57" t="n">
         <v>16.68936448485379</v>
       </c>
       <c r="H57" t="n">
-        <v>16.16023106107124</v>
+        <v>16.16023106107126</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5122,25 +5122,25 @@
         <v>8.178406981876943</v>
       </c>
       <c r="P57" t="n">
-        <v>47.01556118263289</v>
+        <v>47.01556118263294</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.07932352632726844</v>
+        <v>0.07932352632726788</v>
       </c>
       <c r="R57" t="n">
-        <v>1.722363759852177</v>
+        <v>1.72236375985218</v>
       </c>
       <c r="S57" t="n">
-        <v>0.5239370970517608</v>
+        <v>0.5239370970517521</v>
       </c>
       <c r="T57" t="n">
-        <v>2.468146192229692</v>
+        <v>2.468146192229659</v>
       </c>
       <c r="U57" t="n">
-        <v>0.9770099753336116</v>
+        <v>0.9770099753336111</v>
       </c>
       <c r="V57" t="n">
-        <v>0.3811990901557598</v>
+        <v>0.3811990901557648</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002009599999993839</v>
+        <v>0.001533899999998312</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5174,13 +5174,13 @@
         <v>359.9142869015654</v>
       </c>
       <c r="F58" t="n">
-        <v>30.3103841791998</v>
+        <v>30.31038417919981</v>
       </c>
       <c r="G58" t="n">
-        <v>175.2945571075985</v>
+        <v>175.2945571075986</v>
       </c>
       <c r="H58" t="n">
-        <v>6.356357251534828</v>
+        <v>6.356357251534836</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5207,22 +5207,22 @@
         <v>20.16820690266459</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.05557642698132002</v>
+        <v>0.05557642698132017</v>
       </c>
       <c r="R58" t="n">
-        <v>1.167483025333572</v>
+        <v>1.167483025333592</v>
       </c>
       <c r="S58" t="n">
-        <v>0.1699719503185033</v>
+        <v>0.1699719503185031</v>
       </c>
       <c r="T58" t="n">
-        <v>1.766880644159987</v>
+        <v>1.766880644160003</v>
       </c>
       <c r="U58" t="n">
         <v>0.9596240209870629</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4242349883278501</v>
+        <v>0.4242349883278459</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001944399999999291</v>
+        <v>0.001398600000001693</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5262,7 +5262,7 @@
         <v>10.37944715603747</v>
       </c>
       <c r="H59" t="n">
-        <v>9.952003385922458</v>
+        <v>9.952003385922463</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5283,28 +5283,28 @@
         <v>34.17956701829482</v>
       </c>
       <c r="O59" t="n">
-        <v>5.082189902178845</v>
+        <v>5.082189902178833</v>
       </c>
       <c r="P59" t="n">
         <v>37.0169691834617</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.063320563266639</v>
+        <v>0.06332056326663833</v>
       </c>
       <c r="R59" t="n">
         <v>1.543828256243711</v>
       </c>
       <c r="S59" t="n">
-        <v>0.2796939034737186</v>
+        <v>0.2796939034737138</v>
       </c>
       <c r="T59" t="n">
-        <v>2.514549778935045</v>
+        <v>2.514549778935011</v>
       </c>
       <c r="U59" t="n">
         <v>1.090804303463564</v>
       </c>
       <c r="V59" t="n">
-        <v>2.094499905816649</v>
+        <v>2.094499905816652</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.003701900000010028</v>
+        <v>0.001396499999998468</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5341,10 +5341,10 @@
         <v>27.56879068553672</v>
       </c>
       <c r="G60" t="n">
-        <v>59.54961489748482</v>
+        <v>59.54961489748479</v>
       </c>
       <c r="H60" t="n">
-        <v>8.286058031537017</v>
+        <v>8.286058031537026</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5368,25 +5368,25 @@
         <v>17.95464262264545</v>
       </c>
       <c r="P60" t="n">
-        <v>31.52692252408278</v>
+        <v>31.52692252408279</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.07010242322277013</v>
+        <v>0.0701024232227708</v>
       </c>
       <c r="R60" t="n">
-        <v>1.153066465979525</v>
+        <v>1.153066465979502</v>
       </c>
       <c r="S60" t="n">
-        <v>0.5765036751638674</v>
+        <v>0.5765036751638684</v>
       </c>
       <c r="T60" t="n">
-        <v>0.9110652168909271</v>
+        <v>0.9110652168909443</v>
       </c>
       <c r="U60" t="n">
         <v>0.9420770047091555</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3401692120786701</v>
+        <v>0.3401692120786676</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002179200000000492</v>
+        <v>0.002131500000004394</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5453,22 +5453,22 @@
         <v>20.18622734722657</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.05831308917816622</v>
+        <v>0.05831308917816626</v>
       </c>
       <c r="R61" t="n">
-        <v>1.005100102492359</v>
+        <v>1.005100102492352</v>
       </c>
       <c r="S61" t="n">
-        <v>0.1956681100350636</v>
+        <v>0.1956681100350652</v>
       </c>
       <c r="T61" t="n">
         <v>1.51433438436261</v>
       </c>
       <c r="U61" t="n">
-        <v>1.004564241865024</v>
+        <v>1.004564241865023</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6973377964186522</v>
+        <v>0.697337796418652</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.0022591000000034</v>
+        <v>0.001678200000000629</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5502,13 +5502,13 @@
         <v>359.8816514907672</v>
       </c>
       <c r="F62" t="n">
-        <v>32.10374838531479</v>
+        <v>32.10374838531481</v>
       </c>
       <c r="G62" t="n">
         <v>51.57836523580832</v>
       </c>
       <c r="H62" t="n">
-        <v>6.347352942148096</v>
+        <v>6.347352942148103</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5532,25 +5532,25 @@
         <v>11.67564975662096</v>
       </c>
       <c r="P62" t="n">
-        <v>34.94376892828038</v>
+        <v>34.9437689282804</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.07916235491605812</v>
+        <v>0.07916235491605828</v>
       </c>
       <c r="R62" t="n">
-        <v>1.429491145774452</v>
+        <v>1.429491145774411</v>
       </c>
       <c r="S62" t="n">
-        <v>0.5099858047505598</v>
+        <v>0.5099858047505542</v>
       </c>
       <c r="T62" t="n">
-        <v>1.496971186190245</v>
+        <v>1.496971186190254</v>
       </c>
       <c r="U62" t="n">
-        <v>1.070708038866108</v>
+        <v>1.070708038866107</v>
       </c>
       <c r="V62" t="n">
-        <v>0.8277359036497043</v>
+        <v>0.8277359036497085</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002004099999993514</v>
+        <v>0.001511999999998181</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5587,10 +5587,10 @@
         <v>30.99892195745554</v>
       </c>
       <c r="G63" t="n">
-        <v>146.6306487837079</v>
+        <v>146.630648783708</v>
       </c>
       <c r="H63" t="n">
-        <v>5.300195419903192</v>
+        <v>5.300195419903193</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5614,25 +5614,25 @@
         <v>11.51643104201426</v>
       </c>
       <c r="P63" t="n">
-        <v>23.54485988899095</v>
+        <v>23.54485988899094</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.0691965094377897</v>
+        <v>0.06919650943778992</v>
       </c>
       <c r="R63" t="n">
-        <v>1.024565071607184</v>
+        <v>1.024565071607158</v>
       </c>
       <c r="S63" t="n">
-        <v>0.337871233034179</v>
+        <v>0.3378712330341727</v>
       </c>
       <c r="T63" t="n">
-        <v>1.125198568900215</v>
+        <v>1.125198568900224</v>
       </c>
       <c r="U63" t="n">
-        <v>1.031506410561004</v>
+        <v>1.031506410561003</v>
       </c>
       <c r="V63" t="n">
-        <v>0.226967950428708</v>
+        <v>0.2269679504287052</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.00223509999999294</v>
+        <v>0.001974600000004045</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5666,13 +5666,13 @@
         <v>0.07206926235367221</v>
       </c>
       <c r="F64" t="n">
-        <v>32.73454439002458</v>
+        <v>32.7345443900246</v>
       </c>
       <c r="G64" t="n">
-        <v>8.372099236354098</v>
+        <v>8.372099236354135</v>
       </c>
       <c r="H64" t="n">
-        <v>6.312212786918233</v>
+        <v>6.312212786918193</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5696,25 +5696,25 @@
         <v>3.521329581574663</v>
       </c>
       <c r="P64" t="n">
-        <v>37.68323677965872</v>
+        <v>37.68323677965869</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.07069769996223925</v>
+        <v>0.07069769996223843</v>
       </c>
       <c r="R64" t="n">
-        <v>2.208200874285418</v>
+        <v>2.208200874285411</v>
       </c>
       <c r="S64" t="n">
-        <v>0.256247019804546</v>
+        <v>0.2562470198045421</v>
       </c>
       <c r="T64" t="n">
-        <v>3.551384323409172</v>
+        <v>3.551384323409124</v>
       </c>
       <c r="U64" t="n">
         <v>0.8940318542028703</v>
       </c>
       <c r="V64" t="n">
-        <v>0.8084476570943444</v>
+        <v>0.8084476570943575</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001957799999999565</v>
+        <v>0.001492900000002351</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5748,13 +5748,13 @@
         <v>359.964999808542</v>
       </c>
       <c r="F65" t="n">
-        <v>30.64340104547241</v>
+        <v>30.64340104547242</v>
       </c>
       <c r="G65" t="n">
         <v>101.5941162158146</v>
       </c>
       <c r="H65" t="n">
-        <v>7.918426115049102</v>
+        <v>7.918426115049109</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5775,28 +5775,28 @@
         <v>27.80920715278775</v>
       </c>
       <c r="O65" t="n">
-        <v>21.82605647033087</v>
+        <v>21.82605647033088</v>
       </c>
       <c r="P65" t="n">
-        <v>28.1340623141495</v>
+        <v>28.13406231414952</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.07591086441045904</v>
+        <v>0.07591086441045308</v>
       </c>
       <c r="R65" t="n">
-        <v>1.331936752324811</v>
+        <v>1.331936752324661</v>
       </c>
       <c r="S65" t="n">
-        <v>0.6492135180086949</v>
+        <v>0.6492135180085939</v>
       </c>
       <c r="T65" t="n">
-        <v>0.6572957272339187</v>
+        <v>0.6572957272338799</v>
       </c>
       <c r="U65" t="n">
-        <v>0.9596527124547208</v>
+        <v>0.9596527124547201</v>
       </c>
       <c r="V65" t="n">
-        <v>0.121464771607021</v>
+        <v>0.1214647716070161</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002481899999992265</v>
+        <v>0.00184589999999929</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5830,13 +5830,13 @@
         <v>0.2746061789852084</v>
       </c>
       <c r="F66" t="n">
-        <v>30.1303835917422</v>
+        <v>30.13038359174222</v>
       </c>
       <c r="G66" t="n">
         <v>72.01578929908503</v>
       </c>
       <c r="H66" t="n">
-        <v>9.179684926919766</v>
+        <v>9.179684926919778</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5860,25 +5860,25 @@
         <v>20.87907266011437</v>
       </c>
       <c r="P66" t="n">
-        <v>33.08750267161116</v>
+        <v>33.08750267161119</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.07476598475790926</v>
+        <v>0.07476598475790747</v>
       </c>
       <c r="R66" t="n">
-        <v>1.411091727636117</v>
+        <v>1.411091727635939</v>
       </c>
       <c r="S66" t="n">
-        <v>0.7308478977197496</v>
+        <v>0.7308478977196556</v>
       </c>
       <c r="T66" t="n">
-        <v>0.8476044895174814</v>
+        <v>0.8476044895174397</v>
       </c>
       <c r="U66" t="n">
         <v>1.079682236597974</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3018138096751654</v>
+        <v>0.3018138096751608</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.00418990000000008</v>
+        <v>0.001898699999998144</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5912,13 +5912,13 @@
         <v>0.1432190623977981</v>
       </c>
       <c r="F67" t="n">
-        <v>29.69372175396214</v>
+        <v>29.69372175396213</v>
       </c>
       <c r="G67" t="n">
-        <v>37.3112945641681</v>
+        <v>37.31129456416821</v>
       </c>
       <c r="H67" t="n">
-        <v>3.316879778932412</v>
+        <v>3.316879778932399</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5942,25 +5942,25 @@
         <v>6.895309888904174</v>
       </c>
       <c r="P67" t="n">
-        <v>30.46331475711536</v>
+        <v>30.46331475711533</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.06751994271905187</v>
+        <v>0.06751994271905035</v>
       </c>
       <c r="R67" t="n">
-        <v>1.277526654107938</v>
+        <v>1.277526654107936</v>
       </c>
       <c r="S67" t="n">
-        <v>0.2922536318458649</v>
+        <v>0.292253631845857</v>
       </c>
       <c r="T67" t="n">
-        <v>1.935358790081972</v>
+        <v>1.9353587900819</v>
       </c>
       <c r="U67" t="n">
-        <v>0.9921602944236865</v>
+        <v>0.9921602944236867</v>
       </c>
       <c r="V67" t="n">
-        <v>0.1337727209544818</v>
+        <v>0.1337727209544899</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002018000000006737</v>
+        <v>0.001541299999999524</v>
       </c>
       <c r="Y67" t="n">
         <v>7</v>
@@ -5994,13 +5994,13 @@
         <v>359.9098677151778</v>
       </c>
       <c r="F68" t="n">
-        <v>28.95069378639396</v>
+        <v>28.95069378639395</v>
       </c>
       <c r="G68" t="n">
-        <v>31.30630982606739</v>
+        <v>31.30630982606733</v>
       </c>
       <c r="H68" t="n">
-        <v>3.721165185946639</v>
+        <v>3.721165185946647</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6024,25 +6024,25 @@
         <v>6.518920077614013</v>
       </c>
       <c r="P68" t="n">
-        <v>30.34574175353544</v>
+        <v>30.34574175353545</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.06404753318216781</v>
+        <v>0.06404753318216723</v>
       </c>
       <c r="R68" t="n">
-        <v>1.254139379272126</v>
+        <v>1.254139379272122</v>
       </c>
       <c r="S68" t="n">
-        <v>0.275963478234841</v>
+        <v>0.2759634782348361</v>
       </c>
       <c r="T68" t="n">
-        <v>1.923867218462411</v>
+        <v>1.92386721846239</v>
       </c>
       <c r="U68" t="n">
         <v>0.9812497803165821</v>
       </c>
       <c r="V68" t="n">
-        <v>0.7029176724161231</v>
+        <v>0.702917672416117</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002579999999994698</v>
+        <v>0.001707299999999634</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6079,10 +6079,10 @@
         <v>28.17138966960686</v>
       </c>
       <c r="G69" t="n">
-        <v>99.71618966961034</v>
+        <v>99.7161896696104</v>
       </c>
       <c r="H69" t="n">
-        <v>12.01236095419544</v>
+        <v>12.01236095419543</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6103,28 +6103,28 @@
         <v>30.29280265083704</v>
       </c>
       <c r="O69" t="n">
-        <v>33.84388409772104</v>
+        <v>33.84388409772103</v>
       </c>
       <c r="P69" t="n">
         <v>27.83909185041554</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.06876799868762722</v>
+        <v>0.06876799868762991</v>
       </c>
       <c r="R69" t="n">
-        <v>1.362504051903135</v>
+        <v>1.362504051903229</v>
       </c>
       <c r="S69" t="n">
-        <v>0.8933521643153559</v>
+        <v>0.8933521643154263</v>
       </c>
       <c r="T69" t="n">
-        <v>0.353923992779636</v>
+        <v>0.35392399277964</v>
       </c>
       <c r="U69" t="n">
-        <v>0.9746113438708413</v>
+        <v>0.9746113438708403</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4725904801653739</v>
+        <v>0.472590480165376</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002709600000002865</v>
+        <v>0.001901500000002443</v>
       </c>
       <c r="Y69" t="n">
         <v>10</v>
@@ -6161,10 +6161,10 @@
         <v>29.44929850982925</v>
       </c>
       <c r="G70" t="n">
-        <v>52.17963852614976</v>
+        <v>52.17963852614987</v>
       </c>
       <c r="H70" t="n">
-        <v>3.086164653590366</v>
+        <v>3.086164653590358</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6188,25 +6188,25 @@
         <v>7.929148716802085</v>
       </c>
       <c r="P70" t="n">
-        <v>29.3847190995245</v>
+        <v>29.38471909952449</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.06648034435941799</v>
+        <v>0.06648034435942014</v>
       </c>
       <c r="R70" t="n">
-        <v>1.168713041547126</v>
+        <v>1.168713041547114</v>
       </c>
       <c r="S70" t="n">
-        <v>0.3074259874287495</v>
+        <v>0.3074259874287633</v>
       </c>
       <c r="T70" t="n">
-        <v>1.674195805962777</v>
+        <v>1.674195805962851</v>
       </c>
       <c r="U70" t="n">
         <v>1.006050491704062</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5229952485187768</v>
+        <v>0.5229952485187854</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002212700000001178</v>
+        <v>0.002098000000003708</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6243,7 +6243,7 @@
         <v>27.03317523629497</v>
       </c>
       <c r="G71" t="n">
-        <v>52.85779364669236</v>
+        <v>52.85779364669233</v>
       </c>
       <c r="H71" t="n">
         <v>10.99357335196867</v>
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>20.1658829375731</v>
+        <v>20.16588293757309</v>
       </c>
       <c r="N71" t="n">
         <v>38.87559435981993</v>
@@ -6273,22 +6273,22 @@
         <v>34.45131666907434</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.06973789670847515</v>
+        <v>0.06973789670847649</v>
       </c>
       <c r="R71" t="n">
-        <v>1.222439146843469</v>
+        <v>1.222439146843616</v>
       </c>
       <c r="S71" t="n">
-        <v>0.687081139938677</v>
+        <v>0.6870811399387624</v>
       </c>
       <c r="T71" t="n">
-        <v>0.9311679592032586</v>
+        <v>0.9311679592033092</v>
       </c>
       <c r="U71" t="n">
         <v>1.045665217712432</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5905883599454324</v>
+        <v>0.5905883599454338</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.00358839999999816</v>
+        <v>0.001761700000002975</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6322,7 +6322,7 @@
         <v>0.1169415470478188</v>
       </c>
       <c r="F72" t="n">
-        <v>29.14233970400174</v>
+        <v>29.14233970400173</v>
       </c>
       <c r="G72" t="n">
         <v>168.0397559882516</v>
@@ -6352,16 +6352,16 @@
         <v>22.25123304253867</v>
       </c>
       <c r="P72" t="n">
-        <v>11.91692139812783</v>
+        <v>11.91692139812782</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.06233933740338376</v>
+        <v>0.06233933740339147</v>
       </c>
       <c r="R72" t="n">
-        <v>0.8056213239166786</v>
+        <v>0.8056213239167023</v>
       </c>
       <c r="S72" t="n">
-        <v>0.3148278139795742</v>
+        <v>0.3148278139796181</v>
       </c>
       <c r="T72" t="n">
         <v>0.3738695218002544</v>
@@ -6370,7 +6370,7 @@
         <v>1.009442122574437</v>
       </c>
       <c r="V72" t="n">
-        <v>0.2297313973339289</v>
+        <v>0.2297313973339293</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.004564600000009023</v>
+        <v>0.001839199999999153</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6404,13 +6404,13 @@
         <v>0.069474709995949</v>
       </c>
       <c r="F73" t="n">
-        <v>30.69541382574948</v>
+        <v>30.69541382574949</v>
       </c>
       <c r="G73" t="n">
-        <v>41.08383947613505</v>
+        <v>41.08383947613499</v>
       </c>
       <c r="H73" t="n">
-        <v>6.010931049012172</v>
+        <v>6.010931049012185</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6434,25 +6434,25 @@
         <v>10.06316760909632</v>
       </c>
       <c r="P73" t="n">
-        <v>34.03958188596474</v>
+        <v>34.03958188596476</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.07425547975665446</v>
+        <v>0.07425547975665472</v>
       </c>
       <c r="R73" t="n">
-        <v>1.319545224703546</v>
+        <v>1.319545224703596</v>
       </c>
       <c r="S73" t="n">
-        <v>0.4299272343962477</v>
+        <v>0.4299272343962683</v>
       </c>
       <c r="T73" t="n">
-        <v>1.631003960147124</v>
+        <v>1.631003960147142</v>
       </c>
       <c r="U73" t="n">
-        <v>0.9788744655556952</v>
+        <v>0.9788744655556957</v>
       </c>
       <c r="V73" t="n">
-        <v>0.797393616979899</v>
+        <v>0.7973936169798925</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002220499999992853</v>
+        <v>0.002338999999999203</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6492,7 +6492,7 @@
         <v>17.90299827717704</v>
       </c>
       <c r="H74" t="n">
-        <v>12.81935619510473</v>
+        <v>12.81935619510472</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6516,25 +6516,25 @@
         <v>7.968712479996472</v>
       </c>
       <c r="P74" t="n">
-        <v>42.25290037744897</v>
+        <v>42.25290037744896</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.07503072424024582</v>
+        <v>0.0750307242402448</v>
       </c>
       <c r="R74" t="n">
-        <v>1.550002238829303</v>
+        <v>1.550002238829278</v>
       </c>
       <c r="S74" t="n">
-        <v>0.4496311832983846</v>
+        <v>0.4496311832983578</v>
       </c>
       <c r="T74" t="n">
-        <v>2.243504623700251</v>
+        <v>2.243504623700186</v>
       </c>
       <c r="U74" t="n">
         <v>1.008948018082403</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4690231833257207</v>
+        <v>0.4690231833257194</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001965800000007789</v>
+        <v>0.001432900000004622</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6598,25 +6598,25 @@
         <v>27.1433815179901</v>
       </c>
       <c r="P75" t="n">
-        <v>27.41200987396833</v>
+        <v>27.41200987396834</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.0799137701129749</v>
+        <v>0.07991377011297393</v>
       </c>
       <c r="R75" t="n">
-        <v>1.519865177611719</v>
+        <v>1.519865177611639</v>
       </c>
       <c r="S75" t="n">
-        <v>0.7893811056701682</v>
+        <v>0.7893811056701241</v>
       </c>
       <c r="T75" t="n">
-        <v>0.4740975012803572</v>
+        <v>0.4740975012803681</v>
       </c>
       <c r="U75" t="n">
         <v>0.9106080090775766</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4910299026077379</v>
+        <v>0.4910299026077394</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002922100000006367</v>
+        <v>0.001942300000003172</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6650,10 +6650,10 @@
         <v>359.910149547349</v>
       </c>
       <c r="F76" t="n">
-        <v>29.58434079945284</v>
+        <v>29.58434079945285</v>
       </c>
       <c r="G76" t="n">
-        <v>36.71004204681483</v>
+        <v>36.71004204681486</v>
       </c>
       <c r="H76" t="n">
         <v>12.06142598006982</v>
@@ -6680,25 +6680,25 @@
         <v>14.22227982273072</v>
       </c>
       <c r="P76" t="n">
-        <v>39.79068378061547</v>
+        <v>39.79068378061548</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.07764197655722994</v>
+        <v>0.07764197655722975</v>
       </c>
       <c r="R76" t="n">
-        <v>1.446734931056769</v>
+        <v>1.446734931056809</v>
       </c>
       <c r="S76" t="n">
-        <v>0.6497134553097135</v>
+        <v>0.6497134553097179</v>
       </c>
       <c r="T76" t="n">
-        <v>1.440799166313802</v>
+        <v>1.440799166313794</v>
       </c>
       <c r="U76" t="n">
-        <v>0.9105127973303084</v>
+        <v>0.9105127973303087</v>
       </c>
       <c r="V76" t="n">
-        <v>0.1236881551670538</v>
+        <v>0.1236881551670539</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002189799999996467</v>
+        <v>0.001665000000002692</v>
       </c>
       <c r="Y76" t="n">
         <v>8</v>
@@ -6732,13 +6732,13 @@
         <v>359.8061707150991</v>
       </c>
       <c r="F77" t="n">
-        <v>31.95058472489986</v>
+        <v>31.95058472489985</v>
       </c>
       <c r="G77" t="n">
-        <v>92.66082952765522</v>
+        <v>92.66082952765532</v>
       </c>
       <c r="H77" t="n">
-        <v>4.39138300509737</v>
+        <v>4.391383005097367</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6762,25 +6762,25 @@
         <v>12.26959149381465</v>
       </c>
       <c r="P77" t="n">
-        <v>29.76938050060701</v>
+        <v>29.76938050060699</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.07648902365552264</v>
+        <v>0.07648902365552075</v>
       </c>
       <c r="R77" t="n">
-        <v>1.27156324057139</v>
+        <v>1.271563240571405</v>
       </c>
       <c r="S77" t="n">
-        <v>0.4503153329364377</v>
+        <v>0.4503153329364331</v>
       </c>
       <c r="T77" t="n">
-        <v>1.248520117714222</v>
+        <v>1.248520117714194</v>
       </c>
       <c r="U77" t="n">
         <v>0.9584306024225208</v>
       </c>
       <c r="V77" t="n">
-        <v>0.8771416687259239</v>
+        <v>0.877141668725919</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002213100000005852</v>
+        <v>0.001682099999996467</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6814,13 +6814,13 @@
         <v>359.9296836466901</v>
       </c>
       <c r="F78" t="n">
-        <v>29.55840435090208</v>
+        <v>29.55840435090206</v>
       </c>
       <c r="G78" t="n">
-        <v>55.96755294603831</v>
+        <v>55.96755294603833</v>
       </c>
       <c r="H78" t="n">
-        <v>12.76031845092523</v>
+        <v>12.76031845092521</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6844,25 +6844,25 @@
         <v>21.26974511982604</v>
       </c>
       <c r="P78" t="n">
-        <v>38.10755863160842</v>
+        <v>38.10755863160838</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.07868469933032697</v>
+        <v>0.07868469933033005</v>
       </c>
       <c r="R78" t="n">
-        <v>1.513735781519969</v>
+        <v>1.5137357815201</v>
       </c>
       <c r="S78" t="n">
-        <v>0.869955000960178</v>
+        <v>0.8699550009602622</v>
       </c>
       <c r="T78" t="n">
-        <v>1.00062334390563</v>
+        <v>1.000623343905698</v>
       </c>
       <c r="U78" t="n">
-        <v>0.9533997797516875</v>
+        <v>0.9533997797516871</v>
       </c>
       <c r="V78" t="n">
-        <v>0.06622846910701764</v>
+        <v>0.06622846910702335</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002697699999998804</v>
+        <v>0.001955899999998678</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6929,19 +6929,19 @@
         <v>15.76916747839139</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.06428196140536685</v>
+        <v>0.06428196140536276</v>
       </c>
       <c r="R79" t="n">
-        <v>0.813775968227154</v>
+        <v>0.8137759682272074</v>
       </c>
       <c r="S79" t="n">
-        <v>0.3066407999865215</v>
+        <v>0.3066407999865189</v>
       </c>
       <c r="T79" t="n">
-        <v>0.6146918602072327</v>
+        <v>0.6146918602071824</v>
       </c>
       <c r="U79" t="n">
-        <v>0.9986461583048811</v>
+        <v>0.998646158304881</v>
       </c>
       <c r="V79" t="n">
         <v>0.1135878211730148</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.00350619999998969</v>
+        <v>0.001775399999999649</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -6981,10 +6981,10 @@
         <v>32.08017175217876</v>
       </c>
       <c r="G80" t="n">
-        <v>11.27802204291286</v>
+        <v>11.27802204291287</v>
       </c>
       <c r="H80" t="n">
-        <v>9.526698988214651</v>
+        <v>9.526698988214639</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -7008,25 +7008,25 @@
         <v>4.716184462764051</v>
       </c>
       <c r="P80" t="n">
-        <v>40.81323808329193</v>
+        <v>40.81323808329191</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.07285199730220804</v>
+        <v>0.07285199730220825</v>
       </c>
       <c r="R80" t="n">
-        <v>1.93140891980519</v>
+        <v>1.931408919805205</v>
       </c>
       <c r="S80" t="n">
-        <v>0.321778470952945</v>
+        <v>0.3217784709529454</v>
       </c>
       <c r="T80" t="n">
-        <v>3.11731726654125</v>
+        <v>3.117317266541272</v>
       </c>
       <c r="U80" t="n">
         <v>1.004463518023555</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4915762266919802</v>
+        <v>0.4915762266919831</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002185499999995955</v>
+        <v>0.001911700000000849</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7063,10 +7063,10 @@
         <v>31.1711873727619</v>
       </c>
       <c r="G81" t="n">
-        <v>81.58156454777178</v>
+        <v>81.5815645477718</v>
       </c>
       <c r="H81" t="n">
-        <v>9.859783053678649</v>
+        <v>9.859783053678642</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7090,25 +7090,25 @@
         <v>22.77634750827256</v>
       </c>
       <c r="P81" t="n">
-        <v>32.84799280812113</v>
+        <v>32.84799280812112</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.08265145090474935</v>
+        <v>0.08265145090475136</v>
       </c>
       <c r="R81" t="n">
-        <v>1.521492537196617</v>
+        <v>1.521492537196877</v>
       </c>
       <c r="S81" t="n">
-        <v>0.8088628190324403</v>
+        <v>0.8088628190325564</v>
       </c>
       <c r="T81" t="n">
-        <v>0.740220683479881</v>
+        <v>0.7402206834798971</v>
       </c>
       <c r="U81" t="n">
-        <v>0.9435482280930753</v>
+        <v>0.943548228093075</v>
       </c>
       <c r="V81" t="n">
-        <v>0.7614951232151755</v>
+        <v>0.7614951232151719</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.004618800000002921</v>
+        <v>0.001984399999997777</v>
       </c>
       <c r="Y81" t="n">
         <v>10</v>
@@ -7142,13 +7142,13 @@
         <v>359.9652337874842</v>
       </c>
       <c r="F82" t="n">
-        <v>29.60329039109925</v>
+        <v>29.60329039109928</v>
       </c>
       <c r="G82" t="n">
         <v>97.36873668237884</v>
       </c>
       <c r="H82" t="n">
-        <v>11.01236757379844</v>
+        <v>11.01236757379846</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7172,25 +7172,25 @@
         <v>29.41177945149054</v>
       </c>
       <c r="P82" t="n">
-        <v>29.03419396766407</v>
+        <v>29.0341939676641</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.0752882511093424</v>
+        <v>0.07528825110934162</v>
       </c>
       <c r="R82" t="n">
-        <v>1.425215953010816</v>
+        <v>1.42521595301063</v>
       </c>
       <c r="S82" t="n">
-        <v>0.8525460052153895</v>
+        <v>0.8525460052152858</v>
       </c>
       <c r="T82" t="n">
-        <v>0.4547689463595458</v>
+        <v>0.4547689463595554</v>
       </c>
       <c r="U82" t="n">
-        <v>0.95475458565562</v>
+        <v>0.9547545856556198</v>
       </c>
       <c r="V82" t="n">
-        <v>0.2792982409596255</v>
+        <v>0.2792982409596217</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002728000000004727</v>
+        <v>0.00197430000000054</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7224,13 +7224,13 @@
         <v>0.2330949886748308</v>
       </c>
       <c r="F83" t="n">
-        <v>31.89753880165726</v>
+        <v>31.89753880165727</v>
       </c>
       <c r="G83" t="n">
-        <v>77.58565094696672</v>
+        <v>77.58565094696669</v>
       </c>
       <c r="H83" t="n">
-        <v>6.495999790896037</v>
+        <v>6.495999790896041</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,25 +7254,25 @@
         <v>16.06233519344677</v>
       </c>
       <c r="P83" t="n">
-        <v>32.21433108924992</v>
+        <v>32.21433108924994</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.07757893645434936</v>
+        <v>0.07757893645435196</v>
       </c>
       <c r="R83" t="n">
-        <v>1.410231575879496</v>
+        <v>1.410231575879422</v>
       </c>
       <c r="S83" t="n">
-        <v>0.5943884923257975</v>
+        <v>0.5943884923257859</v>
       </c>
       <c r="T83" t="n">
-        <v>1.071696327018914</v>
+        <v>1.071696327018956</v>
       </c>
       <c r="U83" t="n">
         <v>1.011783422292549</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6172701081149394</v>
+        <v>0.6172701081149364</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002175500000006991</v>
+        <v>0.002173100000000261</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7306,13 +7306,13 @@
         <v>359.8361282433649</v>
       </c>
       <c r="F84" t="n">
-        <v>30.00431117749777</v>
+        <v>30.00431117749781</v>
       </c>
       <c r="G84" t="n">
-        <v>45.55900318562028</v>
+        <v>45.55900318562026</v>
       </c>
       <c r="H84" t="n">
-        <v>12.10894201512408</v>
+        <v>12.1089420151241</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7336,25 +7336,25 @@
         <v>16.96561458592702</v>
       </c>
       <c r="P84" t="n">
-        <v>39.27094073441035</v>
+        <v>39.27094073441041</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.07990841729465159</v>
+        <v>0.07990841729465292</v>
       </c>
       <c r="R84" t="n">
-        <v>1.502266467894495</v>
+        <v>1.50226646789448</v>
       </c>
       <c r="S84" t="n">
-        <v>0.7484633376045287</v>
+        <v>0.7484633376045362</v>
       </c>
       <c r="T84" t="n">
-        <v>1.246640310788422</v>
+        <v>1.24664031078845</v>
       </c>
       <c r="U84" t="n">
         <v>1.077784972214574</v>
       </c>
       <c r="V84" t="n">
-        <v>0.532342315512325</v>
+        <v>0.5323423155123337</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002457300000003215</v>
+        <v>0.001837200000004202</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7388,13 +7388,13 @@
         <v>359.9996831400692</v>
       </c>
       <c r="F85" t="n">
-        <v>28.57547598632553</v>
+        <v>28.57547598632555</v>
       </c>
       <c r="G85" t="n">
-        <v>45.97752464171342</v>
+        <v>45.97752464171339</v>
       </c>
       <c r="H85" t="n">
-        <v>10.50083266510801</v>
+        <v>10.50083266510802</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7415,28 +7415,28 @@
         <v>38.26062136792312</v>
       </c>
       <c r="O85" t="n">
-        <v>16.42091296001004</v>
+        <v>16.42091296001005</v>
       </c>
       <c r="P85" t="n">
-        <v>36.19231149258616</v>
+        <v>36.19231149258621</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.07396292627077242</v>
+        <v>0.0739629262707772</v>
       </c>
       <c r="R85" t="n">
-        <v>1.314912455889991</v>
+        <v>1.314912455890033</v>
       </c>
       <c r="S85" t="n">
-        <v>0.6401690415300924</v>
+        <v>0.6401690415301597</v>
       </c>
       <c r="T85" t="n">
-        <v>1.157674727865718</v>
+        <v>1.157674727865841</v>
       </c>
       <c r="U85" t="n">
-        <v>0.9900167315973935</v>
+        <v>0.9900167315973937</v>
       </c>
       <c r="V85" t="n">
-        <v>0.2821397103877218</v>
+        <v>0.2821397103877167</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002440300000003504</v>
+        <v>0.00174390000000102</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7470,13 +7470,13 @@
         <v>0.276385307938863</v>
       </c>
       <c r="F86" t="n">
-        <v>31.67653906084076</v>
+        <v>31.67653906084077</v>
       </c>
       <c r="G86" t="n">
-        <v>7.90371296543866</v>
+        <v>7.903712965438673</v>
       </c>
       <c r="H86" t="n">
-        <v>6.63325418098141</v>
+        <v>6.633254180981394</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>37.02313089208754</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.07275996018045272</v>
+        <v>0.07275996018045298</v>
       </c>
       <c r="R86" t="n">
-        <v>2.118059387143584</v>
+        <v>2.118059387143582</v>
       </c>
       <c r="S86" t="n">
-        <v>0.2575532937903977</v>
+        <v>0.2575532937904016</v>
       </c>
       <c r="T86" t="n">
-        <v>3.407548671111633</v>
+        <v>3.407548671111676</v>
       </c>
       <c r="U86" t="n">
         <v>1.117509111615461</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3488681219233579</v>
+        <v>0.3488681219233623</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001975400000006289</v>
+        <v>0.001370199999996657</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7552,13 +7552,13 @@
         <v>0.06852891734627002</v>
       </c>
       <c r="F87" t="n">
-        <v>30.07003705594096</v>
+        <v>30.07003705594093</v>
       </c>
       <c r="G87" t="n">
         <v>110.7199644497232</v>
       </c>
       <c r="H87" t="n">
-        <v>9.093268494027287</v>
+        <v>9.093268494027276</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7582,25 +7582,25 @@
         <v>25.81429430322635</v>
       </c>
       <c r="P87" t="n">
-        <v>26.20833177270424</v>
+        <v>26.20833177270422</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.07338814697737077</v>
+        <v>0.07338814697737246</v>
       </c>
       <c r="R87" t="n">
-        <v>1.317709155784459</v>
+        <v>1.317709155784618</v>
       </c>
       <c r="S87" t="n">
-        <v>0.6862661741169245</v>
+        <v>0.6862661741170012</v>
       </c>
       <c r="T87" t="n">
-        <v>0.4922595502260202</v>
+        <v>0.4922595502260162</v>
       </c>
       <c r="U87" t="n">
-        <v>1.020742265199061</v>
+        <v>1.020742265199062</v>
       </c>
       <c r="V87" t="n">
-        <v>0.0604351785136978</v>
+        <v>0.06043517851369913</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.00271990000000244</v>
+        <v>0.002043200000002798</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7637,10 +7637,10 @@
         <v>30.04959880019533</v>
       </c>
       <c r="G88" t="n">
-        <v>44.19085384702285</v>
+        <v>44.19085384702293</v>
       </c>
       <c r="H88" t="n">
-        <v>4.502578008325034</v>
+        <v>4.502578008325024</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7664,25 +7664,25 @@
         <v>8.932109387981843</v>
       </c>
       <c r="P88" t="n">
-        <v>31.69169327466796</v>
+        <v>31.69169327466794</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.07045567038646862</v>
+        <v>0.07045567038646904</v>
       </c>
       <c r="R88" t="n">
         <v>1.232395794342868</v>
       </c>
       <c r="S88" t="n">
-        <v>0.3632073557372057</v>
+        <v>0.3632073557372138</v>
       </c>
       <c r="T88" t="n">
-        <v>1.652771432332793</v>
+        <v>1.6527714323328</v>
       </c>
       <c r="U88" t="n">
         <v>1.013322061798904</v>
       </c>
       <c r="V88" t="n">
-        <v>0.7329916963265255</v>
+        <v>0.732991696326533</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002548000000004436</v>
+        <v>0.001686599999999316</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,7 +7716,7 @@
         <v>0.01258376617105279</v>
       </c>
       <c r="F89" t="n">
-        <v>30.29322884291424</v>
+        <v>30.29322884291422</v>
       </c>
       <c r="G89" t="n">
         <v>118.7318411645473</v>
@@ -7743,28 +7743,28 @@
         <v>25.30051964941712</v>
       </c>
       <c r="O89" t="n">
-        <v>40.66021727592888</v>
+        <v>40.66021727592889</v>
       </c>
       <c r="P89" t="n">
-        <v>25.38322127991603</v>
+        <v>25.38322127991601</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.07547720070370804</v>
+        <v>0.0754772007037286</v>
       </c>
       <c r="R89" t="n">
-        <v>1.610269432365181</v>
+        <v>1.610269432366338</v>
       </c>
       <c r="S89" t="n">
-        <v>1.02469739818531</v>
+        <v>1.024697398186037</v>
       </c>
       <c r="T89" t="n">
-        <v>0.366784425818695</v>
+        <v>0.3667844258188155</v>
       </c>
       <c r="U89" t="n">
         <v>1.009238261579579</v>
       </c>
       <c r="V89" t="n">
-        <v>0.05462308975342235</v>
+        <v>0.05462308975342706</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.00296740000000284</v>
+        <v>0.002136600000000044</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7798,13 +7798,13 @@
         <v>0.006693959752032889</v>
       </c>
       <c r="F90" t="n">
-        <v>32.05216851578398</v>
+        <v>32.05216851578396</v>
       </c>
       <c r="G90" t="n">
         <v>115.3512661815582</v>
       </c>
       <c r="H90" t="n">
-        <v>9.852429676054472</v>
+        <v>9.852429676054468</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7828,25 +7828,25 @@
         <v>25.94443353646498</v>
       </c>
       <c r="P90" t="n">
-        <v>27.10533725721812</v>
+        <v>27.10533725721811</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.07882990783902899</v>
+        <v>0.07882990783902838</v>
       </c>
       <c r="R90" t="n">
-        <v>1.498634407049832</v>
+        <v>1.498634407049724</v>
       </c>
       <c r="S90" t="n">
-        <v>0.7516790745986414</v>
+        <v>0.7516790745985905</v>
       </c>
       <c r="T90" t="n">
-        <v>0.5015106970798311</v>
+        <v>0.5015106970798425</v>
       </c>
       <c r="U90" t="n">
-        <v>0.9962076617267519</v>
+        <v>0.9962076617267525</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3947243909601822</v>
+        <v>0.3947243909601805</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.004273600000004762</v>
+        <v>0.002132299999999532</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7880,13 +7880,13 @@
         <v>0.2345137589848663</v>
       </c>
       <c r="F91" t="n">
-        <v>30.01460884698339</v>
+        <v>30.01460884698337</v>
       </c>
       <c r="G91" t="n">
         <v>102.2650596813111</v>
       </c>
       <c r="H91" t="n">
-        <v>5.70051179074627</v>
+        <v>5.700511790746266</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7910,25 +7910,25 @@
         <v>17.09216689268532</v>
       </c>
       <c r="P91" t="n">
-        <v>27.14366086256316</v>
+        <v>27.14366086256315</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.07127423431224593</v>
+        <v>0.07127423431224698</v>
       </c>
       <c r="R91" t="n">
-        <v>1.165514429300407</v>
+        <v>1.165514429300435</v>
       </c>
       <c r="S91" t="n">
-        <v>0.5017377052281402</v>
+        <v>0.5017377052281565</v>
       </c>
       <c r="T91" t="n">
-        <v>0.8490651900108948</v>
+        <v>0.8490651900109122</v>
       </c>
       <c r="U91" t="n">
-        <v>1.039456545405325</v>
+        <v>1.039456545405326</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5652224488460702</v>
+        <v>0.5652224488460722</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002308300000009922</v>
+        <v>0.001610499999998183</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -7965,10 +7965,10 @@
         <v>28.11367059482485</v>
       </c>
       <c r="G92" t="n">
-        <v>19.92743753947427</v>
+        <v>19.92743753947426</v>
       </c>
       <c r="H92" t="n">
-        <v>6.695031852035596</v>
+        <v>6.6950318520356</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7995,22 +7995,22 @@
         <v>33.27488247299057</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.0645452107211686</v>
+        <v>0.06454521072116685</v>
       </c>
       <c r="R92" t="n">
-        <v>1.288901004834553</v>
+        <v>1.28890100483458</v>
       </c>
       <c r="S92" t="n">
-        <v>0.2998529639394616</v>
+        <v>0.299852963939448</v>
       </c>
       <c r="T92" t="n">
-        <v>1.990993366033013</v>
+        <v>1.990993366032957</v>
       </c>
       <c r="U92" t="n">
         <v>1.071535780765258</v>
       </c>
       <c r="V92" t="n">
-        <v>1.169582588634238</v>
+        <v>1.16958258863424</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.003674099999997793</v>
+        <v>0.001578500000000815</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8044,13 +8044,13 @@
         <v>359.8358572808755</v>
       </c>
       <c r="F93" t="n">
-        <v>28.70039726026078</v>
+        <v>28.70039726026079</v>
       </c>
       <c r="G93" t="n">
-        <v>34.57069190510498</v>
+        <v>34.57069190510494</v>
       </c>
       <c r="H93" t="n">
-        <v>7.089277516282234</v>
+        <v>7.08927751628225</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>10.13580834115713</v>
       </c>
       <c r="P93" t="n">
-        <v>33.6135107100877</v>
+        <v>33.61351071008774</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.06997662720650212</v>
+        <v>0.0699766272065042</v>
       </c>
       <c r="R93" t="n">
-        <v>1.205257317358266</v>
+        <v>1.205257317358291</v>
       </c>
       <c r="S93" t="n">
-        <v>0.4086829707532795</v>
+        <v>0.4086829707533073</v>
       </c>
       <c r="T93" t="n">
-        <v>1.528987847718224</v>
+        <v>1.528987847718285</v>
       </c>
       <c r="U93" t="n">
-        <v>0.9404784073846498</v>
+        <v>0.9404784073846494</v>
       </c>
       <c r="V93" t="n">
-        <v>0.1434400735325664</v>
+        <v>0.1434400735325718</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002209600000000478</v>
+        <v>0.001680600000000254</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8159,19 +8159,19 @@
         <v>12.58219983167573</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.06100443322616751</v>
+        <v>0.06100443322616866</v>
       </c>
       <c r="R94" t="n">
-        <v>0.8439415313546097</v>
+        <v>0.8439415313546615</v>
       </c>
       <c r="S94" t="n">
-        <v>0.3500090610893427</v>
+        <v>0.3500090610893628</v>
       </c>
       <c r="T94" t="n">
-        <v>0.3322071045920645</v>
+        <v>0.3322071045920669</v>
       </c>
       <c r="U94" t="n">
-        <v>0.8895145249456964</v>
+        <v>0.8895145249456961</v>
       </c>
       <c r="V94" t="n">
         <v>0.3726466003899841</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002808000000001698</v>
+        <v>0.001957600000004334</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8208,10 +8208,10 @@
         <v>359.9561545019947</v>
       </c>
       <c r="F95" t="n">
-        <v>28.6593559966798</v>
+        <v>28.65935599667979</v>
       </c>
       <c r="G95" t="n">
-        <v>108.9793728184671</v>
+        <v>108.9793728184672</v>
       </c>
       <c r="H95" t="n">
         <v>10.31322039368052</v>
@@ -8235,28 +8235,28 @@
         <v>26.76193268396159</v>
       </c>
       <c r="O95" t="n">
-        <v>30.27146750193218</v>
+        <v>30.27146750193219</v>
       </c>
       <c r="P95" t="n">
-        <v>25.49423390226159</v>
+        <v>25.49423390226157</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.07166847622336783</v>
+        <v>0.0716684762233554</v>
       </c>
       <c r="R95" t="n">
-        <v>1.276343305174186</v>
+        <v>1.276343305173615</v>
       </c>
       <c r="S95" t="n">
-        <v>0.7422596021202936</v>
+        <v>0.7422596021199602</v>
       </c>
       <c r="T95" t="n">
-        <v>0.3811009090707193</v>
+        <v>0.3811009090707118</v>
       </c>
       <c r="U95" t="n">
-        <v>0.8997833043056402</v>
+        <v>0.8997833043056401</v>
       </c>
       <c r="V95" t="n">
-        <v>0.2311885112393426</v>
+        <v>0.2311885112393431</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002803000000000111</v>
+        <v>0.001993899999995108</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,13 +8290,13 @@
         <v>0.03537494305367445</v>
       </c>
       <c r="F96" t="n">
-        <v>28.95546761375787</v>
+        <v>28.95546761375785</v>
       </c>
       <c r="G96" t="n">
         <v>129.00841994734</v>
       </c>
       <c r="H96" t="n">
-        <v>9.764560716881002</v>
+        <v>9.764560716880995</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8320,25 +8320,25 @@
         <v>28.49294394824155</v>
       </c>
       <c r="P96" t="n">
-        <v>21.57724152244396</v>
+        <v>21.57724152244394</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.06933299754919388</v>
+        <v>0.06933299754919275</v>
       </c>
       <c r="R96" t="n">
-        <v>1.167335168306187</v>
+        <v>1.167335168306051</v>
       </c>
       <c r="S96" t="n">
-        <v>0.5995525022038228</v>
+        <v>0.5995525022037611</v>
       </c>
       <c r="T96" t="n">
-        <v>0.3705437552742079</v>
+        <v>0.3705437552742161</v>
       </c>
       <c r="U96" t="n">
-        <v>0.9959983798589446</v>
+        <v>0.9959983798589449</v>
       </c>
       <c r="V96" t="n">
-        <v>0.2439624752009681</v>
+        <v>0.2439624752009697</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002431600000008416</v>
+        <v>0.002198700000000997</v>
       </c>
       <c r="Y96" t="n">
         <v>9</v>
@@ -8372,13 +8372,13 @@
         <v>359.9475842098106</v>
       </c>
       <c r="F97" t="n">
-        <v>30.12003553515561</v>
+        <v>30.12003553515562</v>
       </c>
       <c r="G97" t="n">
         <v>38.39730525010069</v>
       </c>
       <c r="H97" t="n">
-        <v>5.830546632894537</v>
+        <v>5.83054663289454</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,25 +8402,25 @@
         <v>9.446687925497624</v>
       </c>
       <c r="P97" t="n">
-        <v>33.44059472541816</v>
+        <v>33.44059472541817</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.07215143389864066</v>
+        <v>0.07215143389863972</v>
       </c>
       <c r="R97" t="n">
-        <v>1.277219494219108</v>
+        <v>1.27721949421912</v>
       </c>
       <c r="S97" t="n">
-        <v>0.3990479519859353</v>
+        <v>0.3990479519859322</v>
       </c>
       <c r="T97" t="n">
-        <v>1.653595624095009</v>
+        <v>1.653595624094984</v>
       </c>
       <c r="U97" t="n">
         <v>0.9438972751794206</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3697093412697138</v>
+        <v>0.3697093412697162</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.00234330000000682</v>
+        <v>0.001583099999997728</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8454,13 +8454,13 @@
         <v>0.2271630557611558</v>
       </c>
       <c r="F98" t="n">
-        <v>29.13910668305467</v>
+        <v>29.13910668305468</v>
       </c>
       <c r="G98" t="n">
-        <v>41.52886695947974</v>
+        <v>41.52886695947972</v>
       </c>
       <c r="H98" t="n">
-        <v>11.68968005584435</v>
+        <v>11.68968005584436</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8484,25 +8484,25 @@
         <v>15.95683991677218</v>
       </c>
       <c r="P98" t="n">
-        <v>38.50762940510715</v>
+        <v>38.50762940510717</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.07520825313543018</v>
+        <v>0.07520825313543079</v>
       </c>
       <c r="R98" t="n">
-        <v>1.405925193436433</v>
+        <v>1.4059251934365</v>
       </c>
       <c r="S98" t="n">
-        <v>0.6776352505240519</v>
+        <v>0.6776352505241022</v>
       </c>
       <c r="T98" t="n">
-        <v>1.290786817413767</v>
+        <v>1.290786817413822</v>
       </c>
       <c r="U98" t="n">
-        <v>0.9673456789676576</v>
+        <v>0.9673456789676573</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6250178148235965</v>
+        <v>0.6250178148235921</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002539400000003411</v>
+        <v>0.001749699999997745</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8536,13 +8536,13 @@
         <v>0.2322253626843931</v>
       </c>
       <c r="F99" t="n">
-        <v>28.61481005953446</v>
+        <v>28.61481005953448</v>
       </c>
       <c r="G99" t="n">
         <v>152.8768779751042</v>
       </c>
       <c r="H99" t="n">
-        <v>13.95347967390012</v>
+        <v>13.95347967390013</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8563,28 +8563,28 @@
         <v>15.53497559712574</v>
       </c>
       <c r="O99" t="n">
-        <v>38.79758633519175</v>
+        <v>38.79758633519173</v>
       </c>
       <c r="P99" t="n">
-        <v>14.23648937313326</v>
+        <v>14.23648937313328</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.06418544548776803</v>
+        <v>0.06418544548778242</v>
       </c>
       <c r="R99" t="n">
-        <v>1.17108334618988</v>
+        <v>1.171083346190737</v>
       </c>
       <c r="S99" t="n">
-        <v>0.5490853838513255</v>
+        <v>0.5490853838516887</v>
       </c>
       <c r="T99" t="n">
-        <v>0.4196975252310955</v>
+        <v>0.4196975252313599</v>
       </c>
       <c r="U99" t="n">
-        <v>0.9808525715888086</v>
+        <v>0.980852571588808</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3709860591025489</v>
+        <v>0.3709860591025524</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.003622999999990384</v>
+        <v>0.002778999999996756</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8618,13 +8618,13 @@
         <v>0.3085630360823353</v>
       </c>
       <c r="F100" t="n">
-        <v>27.47125751494888</v>
+        <v>27.4712575149489</v>
       </c>
       <c r="G100" t="n">
-        <v>138.8363848066682</v>
+        <v>138.8363848066681</v>
       </c>
       <c r="H100" t="n">
-        <v>9.000761735815653</v>
+        <v>9.00076173581566</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8645,28 +8645,28 @@
         <v>21.92280540344407</v>
       </c>
       <c r="O100" t="n">
-        <v>26.74587931465078</v>
+        <v>26.74587931465079</v>
       </c>
       <c r="P100" t="n">
-        <v>18.72676344912381</v>
+        <v>18.72676344912382</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.06239878206570013</v>
+        <v>0.06239878206570377</v>
       </c>
       <c r="R100" t="n">
-        <v>0.9626830165458207</v>
+        <v>0.9626830165459436</v>
       </c>
       <c r="S100" t="n">
-        <v>0.4740775278838498</v>
+        <v>0.4740775278839159</v>
       </c>
       <c r="T100" t="n">
-        <v>0.3648873093331089</v>
+        <v>0.3648873093331188</v>
       </c>
       <c r="U100" t="n">
         <v>1.087020375913383</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6795070679153343</v>
+        <v>0.67950706791533</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.00251140000000305</v>
+        <v>0.00183659999999719</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8700,13 +8700,13 @@
         <v>359.8890862654212</v>
       </c>
       <c r="F101" t="n">
-        <v>30.98965140864318</v>
+        <v>30.9896514086432</v>
       </c>
       <c r="G101" t="n">
         <v>119.3329955275068</v>
       </c>
       <c r="H101" t="n">
-        <v>9.259701471834093</v>
+        <v>9.259701471834104</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8730,25 +8730,25 @@
         <v>25.21534789605412</v>
       </c>
       <c r="P101" t="n">
-        <v>25.3448439325259</v>
+        <v>25.34484393252594</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.07678476418764624</v>
+        <v>0.07678476418765569</v>
       </c>
       <c r="R101" t="n">
-        <v>1.352264514211126</v>
+        <v>1.352264514211399</v>
       </c>
       <c r="S101" t="n">
-        <v>0.6685342140863194</v>
+        <v>0.6685342140864747</v>
       </c>
       <c r="T101" t="n">
-        <v>0.4889173913166298</v>
+        <v>0.4889173913166525</v>
       </c>
       <c r="U101" t="n">
-        <v>0.9719725434675377</v>
+        <v>0.9719725434675374</v>
       </c>
       <c r="V101" t="n">
-        <v>0.2540476329647213</v>
+        <v>0.254047632964728</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.004401999999998907</v>
+        <v>0.001854999999999052</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>
